--- a/resultados/Venda de Drone/Sem SPAD 1 Drones/vel40/field_16ha_100ha_2%_0m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Sem SPAD 1 Drones/vel40/field_16ha_100ha_2%_0m_0_TSP/Planilha_Unificada.xlsx
@@ -6452,28 +6452,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>443.1391737027316</v>
+        <v>609.4425500721684</v>
       </c>
       <c r="AB2" t="n">
-        <v>606.3225673806579</v>
+        <v>833.8661837164823</v>
       </c>
       <c r="AC2" t="n">
-        <v>548.4559925289152</v>
+        <v>754.2831654811195</v>
       </c>
       <c r="AD2" t="n">
-        <v>443139.1737027316</v>
+        <v>609442.5500721683</v>
       </c>
       <c r="AE2" t="n">
-        <v>606322.5673806579</v>
+        <v>833866.1837164823</v>
       </c>
       <c r="AF2" t="n">
         <v>4.752915221487849e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>34</v>
+        <v>33.02083333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>548455.9925289152</v>
+        <v>754283.1654811194</v>
       </c>
     </row>
     <row r="3">
@@ -6558,28 +6558,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>343.4383841783643</v>
+        <v>480.4435165444603</v>
       </c>
       <c r="AB3" t="n">
-        <v>469.9075486650145</v>
+        <v>657.364015008166</v>
       </c>
       <c r="AC3" t="n">
-        <v>425.0602317398115</v>
+        <v>594.6261160319755</v>
       </c>
       <c r="AD3" t="n">
-        <v>343438.3841783643</v>
+        <v>480443.5165444603</v>
       </c>
       <c r="AE3" t="n">
-        <v>469907.5486650145</v>
+        <v>657364.015008166</v>
       </c>
       <c r="AF3" t="n">
         <v>5.881522396613468e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>27</v>
+        <v>26.69270833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>425060.2317398115</v>
+        <v>594626.1160319755</v>
       </c>
     </row>
     <row r="4">
@@ -6664,28 +6664,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>314.9222354486636</v>
+        <v>442.1388465444113</v>
       </c>
       <c r="AB4" t="n">
-        <v>430.8904959293445</v>
+        <v>604.9538756313246</v>
       </c>
       <c r="AC4" t="n">
-        <v>389.7669117564562</v>
+        <v>547.2179267991672</v>
       </c>
       <c r="AD4" t="n">
-        <v>314922.2354486636</v>
+        <v>442138.8465444113</v>
       </c>
       <c r="AE4" t="n">
-        <v>430890.4959293444</v>
+        <v>604953.8756313246</v>
       </c>
       <c r="AF4" t="n">
         <v>6.340655658394252e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>25</v>
+        <v>24.765625</v>
       </c>
       <c r="AH4" t="n">
-        <v>389766.9117564562</v>
+        <v>547217.9267991672</v>
       </c>
     </row>
     <row r="5">
@@ -6770,28 +6770,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>311.7041569839458</v>
+        <v>429.0990924204215</v>
       </c>
       <c r="AB5" t="n">
-        <v>426.4873790023154</v>
+        <v>587.1123087655304</v>
       </c>
       <c r="AC5" t="n">
-        <v>385.7840221291295</v>
+        <v>531.0791340342481</v>
       </c>
       <c r="AD5" t="n">
-        <v>311704.1569839458</v>
+        <v>429099.0924204215</v>
       </c>
       <c r="AE5" t="n">
-        <v>426487.3790023155</v>
+        <v>587112.3087655305</v>
       </c>
       <c r="AF5" t="n">
         <v>6.536230275679452e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>25</v>
+        <v>24.01041666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>385784.0221291295</v>
+        <v>531079.1340342481</v>
       </c>
     </row>
     <row r="6">
@@ -6876,28 +6876,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>299.1025982719609</v>
+        <v>416.4633682896559</v>
       </c>
       <c r="AB6" t="n">
-        <v>409.2453704310439</v>
+        <v>569.8235535610111</v>
       </c>
       <c r="AC6" t="n">
-        <v>370.1875666565891</v>
+        <v>515.4403933615278</v>
       </c>
       <c r="AD6" t="n">
-        <v>299102.5982719609</v>
+        <v>416463.3682896559</v>
       </c>
       <c r="AE6" t="n">
-        <v>409245.3704310438</v>
+        <v>569823.5535610111</v>
       </c>
       <c r="AF6" t="n">
         <v>6.71004759347622e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>24</v>
+        <v>23.38541666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>370187.566656589</v>
+        <v>515440.3933615277</v>
       </c>
     </row>
     <row r="7">
@@ -6982,28 +6982,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>297.4293834618874</v>
+        <v>405.0699630467957</v>
       </c>
       <c r="AB7" t="n">
-        <v>406.9560041108736</v>
+        <v>554.234593866165</v>
       </c>
       <c r="AC7" t="n">
-        <v>368.1166942448701</v>
+        <v>501.3392221007155</v>
       </c>
       <c r="AD7" t="n">
-        <v>297429.3834618874</v>
+        <v>405069.9630467957</v>
       </c>
       <c r="AE7" t="n">
-        <v>406956.0041108736</v>
+        <v>554234.593866165</v>
       </c>
       <c r="AF7" t="n">
         <v>6.807744497827317e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>24</v>
+        <v>23.046875</v>
       </c>
       <c r="AH7" t="n">
-        <v>368116.6942448701</v>
+        <v>501339.2221007154</v>
       </c>
     </row>
     <row r="8">
@@ -7088,28 +7088,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>286.7284100713184</v>
+        <v>404.1564998967178</v>
       </c>
       <c r="AB8" t="n">
-        <v>392.3144602242698</v>
+        <v>552.9847532850785</v>
       </c>
       <c r="AC8" t="n">
-        <v>354.8725187572678</v>
+        <v>500.2086645505256</v>
       </c>
       <c r="AD8" t="n">
-        <v>286728.4100713184</v>
+        <v>404156.4998967178</v>
       </c>
       <c r="AE8" t="n">
-        <v>392314.4602242698</v>
+        <v>552984.7532850784</v>
       </c>
       <c r="AF8" t="n">
         <v>6.85354933885559e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>23</v>
+        <v>22.890625</v>
       </c>
       <c r="AH8" t="n">
-        <v>354872.5187572678</v>
+        <v>500208.6645505255</v>
       </c>
     </row>
     <row r="9">
@@ -7194,28 +7194,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>286.0938206332499</v>
+        <v>403.5219104586494</v>
       </c>
       <c r="AB9" t="n">
-        <v>391.4461869589944</v>
+        <v>552.1164800198031</v>
       </c>
       <c r="AC9" t="n">
-        <v>354.0871122738011</v>
+        <v>499.4232580670588</v>
       </c>
       <c r="AD9" t="n">
-        <v>286093.8206332499</v>
+        <v>403521.9104586494</v>
       </c>
       <c r="AE9" t="n">
-        <v>391446.1869589944</v>
+        <v>552116.4800198032</v>
       </c>
       <c r="AF9" t="n">
         <v>6.887963239154465e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>23</v>
+        <v>22.78645833333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>354087.1122738011</v>
+        <v>499423.2580670589</v>
       </c>
     </row>
     <row r="10">
@@ -7300,28 +7300,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>285.1377035036721</v>
+        <v>402.5657933290715</v>
       </c>
       <c r="AB10" t="n">
-        <v>390.1379853213952</v>
+        <v>550.8082783822039</v>
       </c>
       <c r="AC10" t="n">
-        <v>352.9037635644219</v>
+        <v>498.2399093576797</v>
       </c>
       <c r="AD10" t="n">
-        <v>285137.7035036721</v>
+        <v>402565.7933290715</v>
       </c>
       <c r="AE10" t="n">
-        <v>390137.9853213952</v>
+        <v>550808.2783822039</v>
       </c>
       <c r="AF10" t="n">
         <v>6.943290665554407e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>23</v>
+        <v>22.60416666666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>352903.7635644219</v>
+        <v>498239.9093576797</v>
       </c>
     </row>
     <row r="11">
@@ -7406,28 +7406,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>284.343137612539</v>
+        <v>401.6697422114531</v>
       </c>
       <c r="AB11" t="n">
-        <v>389.0508252153737</v>
+        <v>549.582261712093</v>
       </c>
       <c r="AC11" t="n">
-        <v>351.9203604930802</v>
+        <v>497.1309019978389</v>
       </c>
       <c r="AD11" t="n">
-        <v>284343.137612539</v>
+        <v>401669.7422114532</v>
       </c>
       <c r="AE11" t="n">
-        <v>389050.8252153737</v>
+        <v>549582.261712093</v>
       </c>
       <c r="AF11" t="n">
         <v>6.993193834464159e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>23</v>
+        <v>22.44791666666667</v>
       </c>
       <c r="AH11" t="n">
-        <v>351920.3604930802</v>
+        <v>497130.9019978389</v>
       </c>
     </row>
     <row r="12">
@@ -7512,28 +7512,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>283.9666513822868</v>
+        <v>401.293255981201</v>
       </c>
       <c r="AB12" t="n">
-        <v>388.5357001457425</v>
+        <v>549.0671366424617</v>
       </c>
       <c r="AC12" t="n">
-        <v>351.4543982371121</v>
+        <v>496.6649397418707</v>
       </c>
       <c r="AD12" t="n">
-        <v>283966.6513822868</v>
+        <v>401293.255981201</v>
       </c>
       <c r="AE12" t="n">
-        <v>388535.7001457425</v>
+        <v>549067.1366424618</v>
       </c>
       <c r="AF12" t="n">
         <v>6.989818740914707e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>23</v>
+        <v>22.44791666666667</v>
       </c>
       <c r="AH12" t="n">
-        <v>351454.398237112</v>
+        <v>496664.9397418707</v>
       </c>
     </row>
     <row r="13">
@@ -7618,28 +7618,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>283.3076175340659</v>
+        <v>390.9140317001933</v>
       </c>
       <c r="AB13" t="n">
-        <v>387.6339809600852</v>
+        <v>534.8658240821287</v>
       </c>
       <c r="AC13" t="n">
-        <v>350.638737864963</v>
+        <v>483.8189805206284</v>
       </c>
       <c r="AD13" t="n">
-        <v>283307.6175340659</v>
+        <v>390914.0317001933</v>
       </c>
       <c r="AE13" t="n">
-        <v>387633.9809600852</v>
+        <v>534865.8240821287</v>
       </c>
       <c r="AF13" t="n">
         <v>7.040806761322497e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>23</v>
+        <v>22.29166666666667</v>
       </c>
       <c r="AH13" t="n">
-        <v>350638.737864963</v>
+        <v>483818.9805206285</v>
       </c>
     </row>
     <row r="14">
@@ -7724,28 +7724,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>283.0108887289634</v>
+        <v>390.6173028950909</v>
       </c>
       <c r="AB14" t="n">
-        <v>387.227983518193</v>
+        <v>534.4598266402367</v>
       </c>
       <c r="AC14" t="n">
-        <v>350.271488249104</v>
+        <v>483.4517309047695</v>
       </c>
       <c r="AD14" t="n">
-        <v>283010.8887289634</v>
+        <v>390617.3028950908</v>
       </c>
       <c r="AE14" t="n">
-        <v>387227.983518193</v>
+        <v>534459.8266402367</v>
       </c>
       <c r="AF14" t="n">
         <v>7.040625952739491e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>23</v>
+        <v>22.29166666666667</v>
       </c>
       <c r="AH14" t="n">
-        <v>350271.4882491041</v>
+        <v>483451.7309047695</v>
       </c>
     </row>
     <row r="15">
@@ -7830,28 +7830,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>282.3363750687058</v>
+        <v>389.9427892348332</v>
       </c>
       <c r="AB15" t="n">
-        <v>386.305084170786</v>
+        <v>533.5369272928297</v>
       </c>
       <c r="AC15" t="n">
-        <v>349.4366691201162</v>
+        <v>482.6169117757817</v>
       </c>
       <c r="AD15" t="n">
-        <v>282336.3750687058</v>
+        <v>389942.7892348332</v>
       </c>
       <c r="AE15" t="n">
-        <v>386305.084170786</v>
+        <v>533536.9272928296</v>
       </c>
       <c r="AF15" t="n">
         <v>7.080584649583894e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>23</v>
+        <v>22.16145833333333</v>
       </c>
       <c r="AH15" t="n">
-        <v>349436.6691201162</v>
+        <v>482616.9117757817</v>
       </c>
     </row>
     <row r="16">
@@ -7936,28 +7936,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>282.206486391279</v>
+        <v>389.8129005574065</v>
       </c>
       <c r="AB16" t="n">
-        <v>386.1273647520467</v>
+        <v>533.3592078740903</v>
       </c>
       <c r="AC16" t="n">
-        <v>349.2759109932707</v>
+        <v>482.4561536489361</v>
       </c>
       <c r="AD16" t="n">
-        <v>282206.486391279</v>
+        <v>389812.9005574065</v>
       </c>
       <c r="AE16" t="n">
-        <v>386127.3647520467</v>
+        <v>533359.2078740903</v>
       </c>
       <c r="AF16" t="n">
         <v>7.08426109077169e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>23</v>
+        <v>22.16145833333333</v>
       </c>
       <c r="AH16" t="n">
-        <v>349275.9109932707</v>
+        <v>482456.1536489361</v>
       </c>
     </row>
     <row r="17">
@@ -8042,28 +8042,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>281.8009419396366</v>
+        <v>389.4073561057641</v>
       </c>
       <c r="AB17" t="n">
-        <v>385.572480941951</v>
+        <v>532.8043240639947</v>
       </c>
       <c r="AC17" t="n">
-        <v>348.7739845152262</v>
+        <v>481.9542271708916</v>
       </c>
       <c r="AD17" t="n">
-        <v>281800.9419396366</v>
+        <v>389407.356105764</v>
       </c>
       <c r="AE17" t="n">
-        <v>385572.480941951</v>
+        <v>532804.3240639947</v>
       </c>
       <c r="AF17" t="n">
         <v>7.090770199759918e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>23</v>
+        <v>22.13541666666667</v>
       </c>
       <c r="AH17" t="n">
-        <v>348773.9845152262</v>
+        <v>481954.2271708916</v>
       </c>
     </row>
     <row r="18">
@@ -8148,28 +8148,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>281.3759385784946</v>
+        <v>388.9823527446221</v>
       </c>
       <c r="AB18" t="n">
-        <v>384.9909725934116</v>
+        <v>532.2228157154552</v>
       </c>
       <c r="AC18" t="n">
-        <v>348.2479745073193</v>
+        <v>481.4282171629847</v>
       </c>
       <c r="AD18" t="n">
-        <v>281375.9385784946</v>
+        <v>388982.352744622</v>
       </c>
       <c r="AE18" t="n">
-        <v>384990.9725934116</v>
+        <v>532222.8157154552</v>
       </c>
       <c r="AF18" t="n">
         <v>7.086370524240097e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>23</v>
+        <v>22.16145833333333</v>
       </c>
       <c r="AH18" t="n">
-        <v>348247.9745073193</v>
+        <v>481428.2171629847</v>
       </c>
     </row>
     <row r="19">
@@ -8254,28 +8254,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>270.6549457810902</v>
+        <v>388.0488701877088</v>
       </c>
       <c r="AB19" t="n">
-        <v>370.3220372711817</v>
+        <v>530.9455836987426</v>
       </c>
       <c r="AC19" t="n">
-        <v>334.979021784263</v>
+        <v>480.2728823773407</v>
       </c>
       <c r="AD19" t="n">
-        <v>270654.9457810902</v>
+        <v>388048.8701877088</v>
       </c>
       <c r="AE19" t="n">
-        <v>370322.0372711816</v>
+        <v>530945.5836987426</v>
       </c>
       <c r="AF19" t="n">
         <v>7.140251481975989e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>22</v>
+        <v>21.97916666666667</v>
       </c>
       <c r="AH19" t="n">
-        <v>334979.021784263</v>
+        <v>480272.8823773407</v>
       </c>
     </row>
     <row r="20">
@@ -8360,28 +8360,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>270.6333673765113</v>
+        <v>388.0272917831299</v>
       </c>
       <c r="AB20" t="n">
-        <v>370.2925127460647</v>
+        <v>530.9160591736256</v>
       </c>
       <c r="AC20" t="n">
-        <v>334.9523150383853</v>
+        <v>480.2461756314631</v>
       </c>
       <c r="AD20" t="n">
-        <v>270633.3673765113</v>
+        <v>388027.2917831299</v>
       </c>
       <c r="AE20" t="n">
-        <v>370292.5127460647</v>
+        <v>530916.0591736257</v>
       </c>
       <c r="AF20" t="n">
         <v>7.138805013311937e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>22</v>
+        <v>21.97916666666667</v>
       </c>
       <c r="AH20" t="n">
-        <v>334952.3150383853</v>
+        <v>480246.1756314631</v>
       </c>
     </row>
     <row r="21">
@@ -8466,28 +8466,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>270.4789160176182</v>
+        <v>387.8728404242369</v>
       </c>
       <c r="AB21" t="n">
-        <v>370.0811855829142</v>
+        <v>530.7047320104751</v>
       </c>
       <c r="AC21" t="n">
-        <v>334.7611566430863</v>
+        <v>480.0550172361641</v>
       </c>
       <c r="AD21" t="n">
-        <v>270478.9160176183</v>
+        <v>387872.8404242368</v>
       </c>
       <c r="AE21" t="n">
-        <v>370081.1855829142</v>
+        <v>530704.7320104751</v>
       </c>
       <c r="AF21" t="n">
         <v>7.138563935201263e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>22</v>
+        <v>21.97916666666667</v>
       </c>
       <c r="AH21" t="n">
-        <v>334761.1566430863</v>
+        <v>480055.0172361641</v>
       </c>
     </row>
     <row r="22">
@@ -8572,28 +8572,28 @@
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>270.1477107598481</v>
+        <v>387.5416351664667</v>
       </c>
       <c r="AB22" t="n">
-        <v>369.6280159374884</v>
+        <v>530.2515623650494</v>
       </c>
       <c r="AC22" t="n">
-        <v>334.3512368725924</v>
+        <v>479.6450974656701</v>
       </c>
       <c r="AD22" t="n">
-        <v>270147.7107598481</v>
+        <v>387541.6351664667</v>
       </c>
       <c r="AE22" t="n">
-        <v>369628.0159374884</v>
+        <v>530251.5623650494</v>
       </c>
       <c r="AF22" t="n">
         <v>7.14115552489102e-06</v>
       </c>
       <c r="AG22" t="n">
-        <v>22</v>
+        <v>21.97916666666667</v>
       </c>
       <c r="AH22" t="n">
-        <v>334351.2368725924</v>
+        <v>479645.0974656701</v>
       </c>
     </row>
     <row r="23">
@@ -8678,28 +8678,28 @@
         <v>10</v>
       </c>
       <c r="AA23" t="n">
-        <v>269.636378142182</v>
+        <v>387.0303025488005</v>
       </c>
       <c r="AB23" t="n">
-        <v>368.9283880915945</v>
+        <v>529.5519345191555</v>
       </c>
       <c r="AC23" t="n">
-        <v>333.7183805263767</v>
+        <v>479.0122411194545</v>
       </c>
       <c r="AD23" t="n">
-        <v>269636.378142182</v>
+        <v>387030.3025488005</v>
       </c>
       <c r="AE23" t="n">
-        <v>368928.3880915945</v>
+        <v>529551.9345191554</v>
       </c>
       <c r="AF23" t="n">
         <v>7.147785172934587e-06</v>
       </c>
       <c r="AG23" t="n">
-        <v>22</v>
+        <v>21.953125</v>
       </c>
       <c r="AH23" t="n">
-        <v>333718.3805263767</v>
+        <v>479012.2411194545</v>
       </c>
     </row>
     <row r="24">
@@ -8784,28 +8784,28 @@
         <v>10</v>
       </c>
       <c r="AA24" t="n">
-        <v>269.1102846892223</v>
+        <v>386.5042090958409</v>
       </c>
       <c r="AB24" t="n">
-        <v>368.2085638196501</v>
+        <v>528.8321102472111</v>
       </c>
       <c r="AC24" t="n">
-        <v>333.0672552726669</v>
+        <v>478.3611158657448</v>
       </c>
       <c r="AD24" t="n">
-        <v>269110.2846892223</v>
+        <v>386504.2090958409</v>
       </c>
       <c r="AE24" t="n">
-        <v>368208.5638196501</v>
+        <v>528832.1102472111</v>
       </c>
       <c r="AF24" t="n">
         <v>7.148207059628268e-06</v>
       </c>
       <c r="AG24" t="n">
-        <v>22</v>
+        <v>21.953125</v>
       </c>
       <c r="AH24" t="n">
-        <v>333067.2552726669</v>
+        <v>478361.1158657448</v>
       </c>
     </row>
     <row r="25">
@@ -8890,28 +8890,28 @@
         <v>10</v>
       </c>
       <c r="AA25" t="n">
-        <v>268.5667920140712</v>
+        <v>385.9607164206897</v>
       </c>
       <c r="AB25" t="n">
-        <v>367.4649331643036</v>
+        <v>528.0884795918645</v>
       </c>
       <c r="AC25" t="n">
-        <v>332.3945956833746</v>
+        <v>477.6884562764524</v>
       </c>
       <c r="AD25" t="n">
-        <v>268566.7920140711</v>
+        <v>385960.7164206897</v>
       </c>
       <c r="AE25" t="n">
-        <v>367464.9331643036</v>
+        <v>528088.4795918645</v>
       </c>
       <c r="AF25" t="n">
         <v>7.142601993555071e-06</v>
       </c>
       <c r="AG25" t="n">
-        <v>22</v>
+        <v>21.97916666666667</v>
       </c>
       <c r="AH25" t="n">
-        <v>332394.5956833746</v>
+        <v>477688.4562764523</v>
       </c>
     </row>
     <row r="26">
@@ -8996,28 +8996,28 @@
         <v>10</v>
       </c>
       <c r="AA26" t="n">
-        <v>267.9649724639996</v>
+        <v>385.3588968706182</v>
       </c>
       <c r="AB26" t="n">
-        <v>366.6414971054911</v>
+        <v>527.265043533052</v>
       </c>
       <c r="AC26" t="n">
-        <v>331.6497472063153</v>
+        <v>476.9436077993931</v>
       </c>
       <c r="AD26" t="n">
-        <v>267964.9724639996</v>
+        <v>385358.8968706182</v>
       </c>
       <c r="AE26" t="n">
-        <v>366641.4971054911</v>
+        <v>527265.043533052</v>
       </c>
       <c r="AF26" t="n">
         <v>7.192324353881816e-06</v>
       </c>
       <c r="AG26" t="n">
-        <v>22</v>
+        <v>21.82291666666667</v>
       </c>
       <c r="AH26" t="n">
-        <v>331649.7472063153</v>
+        <v>476943.6077993931</v>
       </c>
     </row>
   </sheetData>
@@ -9293,28 +9293,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>376.7682675816519</v>
+        <v>531.5887231458202</v>
       </c>
       <c r="AB2" t="n">
-        <v>515.5109655480721</v>
+        <v>727.3431430474153</v>
       </c>
       <c r="AC2" t="n">
-        <v>466.3113225203477</v>
+        <v>657.9265343074819</v>
       </c>
       <c r="AD2" t="n">
-        <v>376768.2675816519</v>
+        <v>531588.7231458202</v>
       </c>
       <c r="AE2" t="n">
-        <v>515510.9655480721</v>
+        <v>727343.1430474153</v>
       </c>
       <c r="AF2" t="n">
         <v>5.775613019579774e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>30</v>
+        <v>29.73958333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>466311.3225203477</v>
+        <v>657926.534307482</v>
       </c>
     </row>
     <row r="3">
@@ -9399,28 +9399,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>306.6821262243363</v>
+        <v>432.495099756961</v>
       </c>
       <c r="AB3" t="n">
-        <v>419.6160149606574</v>
+        <v>591.7588758246536</v>
       </c>
       <c r="AC3" t="n">
-        <v>379.5684514275873</v>
+        <v>535.2822392547464</v>
       </c>
       <c r="AD3" t="n">
-        <v>306682.1262243363</v>
+        <v>432495.099756961</v>
       </c>
       <c r="AE3" t="n">
-        <v>419616.0149606573</v>
+        <v>591758.8758246537</v>
       </c>
       <c r="AF3" t="n">
         <v>6.911795944122081e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>25</v>
+        <v>24.84375</v>
       </c>
       <c r="AH3" t="n">
-        <v>379568.4514275873</v>
+        <v>535282.2392547464</v>
       </c>
     </row>
     <row r="4">
@@ -9505,28 +9505,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>291.2959582111842</v>
+        <v>407.3610627859963</v>
       </c>
       <c r="AB4" t="n">
-        <v>398.5639810952364</v>
+        <v>557.3693776055262</v>
       </c>
       <c r="AC4" t="n">
-        <v>360.5255941275671</v>
+        <v>504.1748264796887</v>
       </c>
       <c r="AD4" t="n">
-        <v>291295.9582111842</v>
+        <v>407361.0627859963</v>
       </c>
       <c r="AE4" t="n">
-        <v>398563.9810952364</v>
+        <v>557369.3776055262</v>
       </c>
       <c r="AF4" t="n">
         <v>7.316506293412009e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>24</v>
+        <v>23.46354166666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>360525.5941275671</v>
+        <v>504174.8264796887</v>
       </c>
     </row>
     <row r="5">
@@ -9611,28 +9611,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>278.4732720715195</v>
+        <v>394.605696454036</v>
       </c>
       <c r="AB5" t="n">
-        <v>381.0194162219597</v>
+        <v>539.916922663091</v>
       </c>
       <c r="AC5" t="n">
-        <v>344.6554579018443</v>
+        <v>488.3880093422851</v>
       </c>
       <c r="AD5" t="n">
-        <v>278473.2720715195</v>
+        <v>394605.696454036</v>
       </c>
       <c r="AE5" t="n">
-        <v>381019.4162219597</v>
+        <v>539916.922663091</v>
       </c>
       <c r="AF5" t="n">
         <v>7.545272824565137e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>23</v>
+        <v>22.76041666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>344655.4579018443</v>
+        <v>488388.0093422851</v>
       </c>
     </row>
     <row r="6">
@@ -9717,28 +9717,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>277.3996342024564</v>
+        <v>393.5320585849729</v>
       </c>
       <c r="AB6" t="n">
-        <v>379.5504175239477</v>
+        <v>538.447923965079</v>
       </c>
       <c r="AC6" t="n">
-        <v>343.326658377818</v>
+        <v>487.0592098182588</v>
       </c>
       <c r="AD6" t="n">
-        <v>277399.6342024564</v>
+        <v>393532.0585849729</v>
       </c>
       <c r="AE6" t="n">
-        <v>379550.4175239477</v>
+        <v>538447.923965079</v>
       </c>
       <c r="AF6" t="n">
         <v>7.621110677210309e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>23</v>
+        <v>22.52604166666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>343326.658377818</v>
+        <v>487059.2098182588</v>
       </c>
     </row>
     <row r="7">
@@ -9823,28 +9823,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>275.9821184854284</v>
+        <v>382.4008393289133</v>
       </c>
       <c r="AB7" t="n">
-        <v>377.6109099835302</v>
+        <v>523.2176987042028</v>
       </c>
       <c r="AC7" t="n">
-        <v>341.572254714942</v>
+        <v>473.2825358805251</v>
       </c>
       <c r="AD7" t="n">
-        <v>275982.1184854284</v>
+        <v>382400.8393289133</v>
       </c>
       <c r="AE7" t="n">
-        <v>377610.9099835302</v>
+        <v>523217.6987042028</v>
       </c>
       <c r="AF7" t="n">
         <v>7.724250156807742e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>23</v>
+        <v>22.23958333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>341572.254714942</v>
+        <v>473282.5358805251</v>
       </c>
     </row>
     <row r="8">
@@ -9929,28 +9929,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>275.0762559101088</v>
+        <v>381.4949767535936</v>
       </c>
       <c r="AB8" t="n">
-        <v>376.3714688441415</v>
+        <v>521.9782575648142</v>
       </c>
       <c r="AC8" t="n">
-        <v>340.45110409833</v>
+        <v>472.1613852639132</v>
       </c>
       <c r="AD8" t="n">
-        <v>275076.2559101088</v>
+        <v>381494.9767535936</v>
       </c>
       <c r="AE8" t="n">
-        <v>376371.4688441415</v>
+        <v>521978.2575648142</v>
       </c>
       <c r="AF8" t="n">
         <v>7.776149626400567e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>23</v>
+        <v>22.08333333333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>340451.10409833</v>
+        <v>472161.3852639132</v>
       </c>
     </row>
     <row r="9">
@@ -10035,28 +10035,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>264.5665834330335</v>
+        <v>380.6648423967693</v>
       </c>
       <c r="AB9" t="n">
-        <v>361.9916713069805</v>
+        <v>520.8424311148641</v>
       </c>
       <c r="AC9" t="n">
-        <v>327.4436942559432</v>
+        <v>471.1339604962039</v>
       </c>
       <c r="AD9" t="n">
-        <v>264566.5834330335</v>
+        <v>380664.8423967693</v>
       </c>
       <c r="AE9" t="n">
-        <v>361991.6713069805</v>
+        <v>520842.4311148641</v>
       </c>
       <c r="AF9" t="n">
         <v>7.819146391552439e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>22</v>
+        <v>21.953125</v>
       </c>
       <c r="AH9" t="n">
-        <v>327443.6942559432</v>
+        <v>471133.9604962039</v>
       </c>
     </row>
     <row r="10">
@@ -10141,28 +10141,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>263.9666901476132</v>
+        <v>380.0649491113489</v>
       </c>
       <c r="AB10" t="n">
-        <v>361.1708708484445</v>
+        <v>520.0216306563281</v>
       </c>
       <c r="AC10" t="n">
-        <v>326.7012298411691</v>
+        <v>470.3914960814299</v>
       </c>
       <c r="AD10" t="n">
-        <v>263966.6901476132</v>
+        <v>380064.9491113489</v>
       </c>
       <c r="AE10" t="n">
-        <v>361170.8708484445</v>
+        <v>520021.6306563281</v>
       </c>
       <c r="AF10" t="n">
         <v>7.859835048145544e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>22</v>
+        <v>21.84895833333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>326701.2298411691</v>
+        <v>470391.4960814299</v>
       </c>
     </row>
     <row r="11">
@@ -10247,28 +10247,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>263.0266020331418</v>
+        <v>369.5126426843311</v>
       </c>
       <c r="AB11" t="n">
-        <v>359.8846008164642</v>
+        <v>505.5834994679783</v>
       </c>
       <c r="AC11" t="n">
-        <v>325.5377196157496</v>
+        <v>457.3313198696519</v>
       </c>
       <c r="AD11" t="n">
-        <v>263026.6020331418</v>
+        <v>369512.642684331</v>
       </c>
       <c r="AE11" t="n">
-        <v>359884.6008164642</v>
+        <v>505583.4994679783</v>
       </c>
       <c r="AF11" t="n">
         <v>7.916944248485298e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>22</v>
+        <v>21.69270833333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>325537.7196157496</v>
+        <v>457331.3198696519</v>
       </c>
     </row>
     <row r="12">
@@ -10353,28 +10353,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>262.6998367788842</v>
+        <v>369.1858774300735</v>
       </c>
       <c r="AB12" t="n">
-        <v>359.4375061797234</v>
+        <v>505.1364048312376</v>
       </c>
       <c r="AC12" t="n">
-        <v>325.1332950636381</v>
+        <v>456.9268953175405</v>
       </c>
       <c r="AD12" t="n">
-        <v>262699.8367788842</v>
+        <v>369185.8774300735</v>
       </c>
       <c r="AE12" t="n">
-        <v>359437.5061797234</v>
+        <v>505136.4048312376</v>
       </c>
       <c r="AF12" t="n">
         <v>7.919318303002887e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>22</v>
+        <v>21.69270833333333</v>
       </c>
       <c r="AH12" t="n">
-        <v>325133.2950636381</v>
+        <v>456926.8953175405</v>
       </c>
     </row>
     <row r="13">
@@ -10459,28 +10459,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>261.9956866338061</v>
+        <v>368.4817272849954</v>
       </c>
       <c r="AB13" t="n">
-        <v>358.4740568863156</v>
+        <v>504.1729555378298</v>
       </c>
       <c r="AC13" t="n">
-        <v>324.2617960185836</v>
+        <v>456.055396272486</v>
       </c>
       <c r="AD13" t="n">
-        <v>261995.6866338062</v>
+        <v>368481.7272849954</v>
       </c>
       <c r="AE13" t="n">
-        <v>358474.0568863156</v>
+        <v>504172.9555378298</v>
       </c>
       <c r="AF13" t="n">
         <v>7.959941013637168e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>22</v>
+        <v>21.5625</v>
       </c>
       <c r="AH13" t="n">
-        <v>324261.7960185836</v>
+        <v>456055.396272486</v>
       </c>
     </row>
     <row r="14">
@@ -10565,28 +10565,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>261.7607225103181</v>
+        <v>368.2467631615073</v>
       </c>
       <c r="AB14" t="n">
-        <v>358.1525686066737</v>
+        <v>503.8514672581878</v>
       </c>
       <c r="AC14" t="n">
-        <v>323.9709901291391</v>
+        <v>455.7645903830414</v>
       </c>
       <c r="AD14" t="n">
-        <v>261760.7225103181</v>
+        <v>368246.7631615073</v>
       </c>
       <c r="AE14" t="n">
-        <v>358152.5686066737</v>
+        <v>503851.4672581878</v>
       </c>
       <c r="AF14" t="n">
         <v>7.963172365619443e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>22</v>
+        <v>21.5625</v>
       </c>
       <c r="AH14" t="n">
-        <v>323970.9901291391</v>
+        <v>455764.5903830414</v>
       </c>
     </row>
     <row r="15">
@@ -10671,28 +10671,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>261.046934332589</v>
+        <v>367.5329749837783</v>
       </c>
       <c r="AB15" t="n">
-        <v>357.1759321317929</v>
+        <v>502.8748307833071</v>
       </c>
       <c r="AC15" t="n">
-        <v>323.087562468703</v>
+        <v>454.8811627226053</v>
       </c>
       <c r="AD15" t="n">
-        <v>261046.934332589</v>
+        <v>367532.9749837783</v>
       </c>
       <c r="AE15" t="n">
-        <v>357175.9321317929</v>
+        <v>502874.8307833071</v>
       </c>
       <c r="AF15" t="n">
         <v>7.97115182663689e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>22</v>
+        <v>21.53645833333333</v>
       </c>
       <c r="AH15" t="n">
-        <v>323087.562468703</v>
+        <v>454881.1627226053</v>
       </c>
     </row>
     <row r="16">
@@ -10777,28 +10777,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>260.2150066672446</v>
+        <v>366.5995620919487</v>
       </c>
       <c r="AB16" t="n">
-        <v>356.0376519980103</v>
+        <v>501.5976940854353</v>
       </c>
       <c r="AC16" t="n">
-        <v>322.0579181933024</v>
+        <v>453.7259141587057</v>
       </c>
       <c r="AD16" t="n">
-        <v>260215.0066672446</v>
+        <v>366599.5620919486</v>
       </c>
       <c r="AE16" t="n">
-        <v>356037.6519980103</v>
+        <v>501597.6940854352</v>
       </c>
       <c r="AF16" t="n">
         <v>8.01830318719454e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>22</v>
+        <v>21.40625</v>
       </c>
       <c r="AH16" t="n">
-        <v>322057.9181933025</v>
+        <v>453725.9141587057</v>
       </c>
     </row>
     <row r="17">
@@ -10883,28 +10883,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>260.0735259983206</v>
+        <v>366.4580814230246</v>
       </c>
       <c r="AB17" t="n">
-        <v>355.8440719051019</v>
+        <v>501.4041139925268</v>
       </c>
       <c r="AC17" t="n">
-        <v>321.8828131127698</v>
+        <v>453.5508090781731</v>
       </c>
       <c r="AD17" t="n">
-        <v>260073.5259983206</v>
+        <v>366458.0814230246</v>
       </c>
       <c r="AE17" t="n">
-        <v>355844.0719051019</v>
+        <v>501404.1139925268</v>
       </c>
       <c r="AF17" t="n">
         <v>8.022062106847389e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>22</v>
+        <v>21.40625</v>
       </c>
       <c r="AH17" t="n">
-        <v>321882.8131127699</v>
+        <v>453550.8090781731</v>
       </c>
     </row>
     <row r="18">
@@ -10989,28 +10989,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>259.7944495492214</v>
+        <v>366.1790049739254</v>
       </c>
       <c r="AB18" t="n">
-        <v>355.4622271954603</v>
+        <v>501.0222692828852</v>
       </c>
       <c r="AC18" t="n">
-        <v>321.537411126294</v>
+        <v>453.2054070916973</v>
       </c>
       <c r="AD18" t="n">
-        <v>259794.4495492214</v>
+        <v>366179.0049739254</v>
       </c>
       <c r="AE18" t="n">
-        <v>355462.2271954603</v>
+        <v>501022.2692828852</v>
       </c>
       <c r="AF18" t="n">
         <v>8.019094538700403e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>22</v>
+        <v>21.40625</v>
       </c>
       <c r="AH18" t="n">
-        <v>321537.4111262941</v>
+        <v>453205.4070916973</v>
       </c>
     </row>
     <row r="19">
@@ -11095,28 +11095,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>259.7810237750083</v>
+        <v>366.1655791997123</v>
       </c>
       <c r="AB19" t="n">
-        <v>355.4438574588786</v>
+        <v>501.0038995463035</v>
       </c>
       <c r="AC19" t="n">
-        <v>321.5207945715896</v>
+        <v>453.1887905369928</v>
       </c>
       <c r="AD19" t="n">
-        <v>259781.0237750083</v>
+        <v>366165.5791997123</v>
       </c>
       <c r="AE19" t="n">
-        <v>355443.8574588786</v>
+        <v>501003.8995463035</v>
       </c>
       <c r="AF19" t="n">
         <v>8.019094538700403e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>22</v>
+        <v>21.40625</v>
       </c>
       <c r="AH19" t="n">
-        <v>321520.7945715896</v>
+        <v>453188.7905369928</v>
       </c>
     </row>
   </sheetData>
@@ -11392,28 +11392,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>267.3316381305495</v>
+        <v>379.4959337807826</v>
       </c>
       <c r="AB2" t="n">
-        <v>365.7749411297258</v>
+        <v>519.2430787778625</v>
       </c>
       <c r="AC2" t="n">
-        <v>330.8658941166581</v>
+        <v>469.6872481015406</v>
       </c>
       <c r="AD2" t="n">
-        <v>267331.6381305495</v>
+        <v>379495.9337807826</v>
       </c>
       <c r="AE2" t="n">
-        <v>365774.9411297258</v>
+        <v>519243.0787778625</v>
       </c>
       <c r="AF2" t="n">
         <v>1.020654969850587e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>24</v>
+        <v>23.48958333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>330865.8941166581</v>
+        <v>469687.2481015406</v>
       </c>
     </row>
     <row r="3">
@@ -11498,28 +11498,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>241.9863871520038</v>
+        <v>344.7952010625133</v>
       </c>
       <c r="AB3" t="n">
-        <v>331.0964505871658</v>
+        <v>471.7640053844436</v>
       </c>
       <c r="AC3" t="n">
-        <v>299.4970700400122</v>
+        <v>426.7395108354917</v>
       </c>
       <c r="AD3" t="n">
-        <v>241986.3871520038</v>
+        <v>344795.2010625133</v>
       </c>
       <c r="AE3" t="n">
-        <v>331096.4505871658</v>
+        <v>471764.0053844436</v>
       </c>
       <c r="AF3" t="n">
         <v>1.115563870009575e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>22</v>
+        <v>21.484375</v>
       </c>
       <c r="AH3" t="n">
-        <v>299497.0700400122</v>
+        <v>426739.5108354916</v>
       </c>
     </row>
     <row r="4">
@@ -11604,28 +11604,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>230.339697491013</v>
+        <v>333.2158312092267</v>
       </c>
       <c r="AB4" t="n">
-        <v>315.1609359773216</v>
+        <v>455.9206007054327</v>
       </c>
       <c r="AC4" t="n">
-        <v>285.0824185788912</v>
+        <v>412.4081784626874</v>
       </c>
       <c r="AD4" t="n">
-        <v>230339.697491013</v>
+        <v>333215.8312092267</v>
       </c>
       <c r="AE4" t="n">
-        <v>315160.9359773216</v>
+        <v>455920.6007054327</v>
       </c>
       <c r="AF4" t="n">
         <v>1.145009469040571e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>21</v>
+        <v>20.9375</v>
       </c>
       <c r="AH4" t="n">
-        <v>285082.4185788912</v>
+        <v>412408.1784626874</v>
       </c>
     </row>
     <row r="5">
@@ -11710,28 +11710,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>228.7921974590058</v>
+        <v>331.6683311772195</v>
       </c>
       <c r="AB5" t="n">
-        <v>313.0435781626472</v>
+        <v>453.8032428907574</v>
       </c>
       <c r="AC5" t="n">
-        <v>283.1671384223184</v>
+        <v>410.4928983061143</v>
       </c>
       <c r="AD5" t="n">
-        <v>228792.1974590058</v>
+        <v>331668.3311772195</v>
       </c>
       <c r="AE5" t="n">
-        <v>313043.5781626473</v>
+        <v>453803.2428907573</v>
       </c>
       <c r="AF5" t="n">
         <v>1.161789502498998e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>21</v>
+        <v>20.625</v>
       </c>
       <c r="AH5" t="n">
-        <v>283167.1384223184</v>
+        <v>410492.8983061143</v>
       </c>
     </row>
     <row r="6">
@@ -11816,28 +11816,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>227.6566789431658</v>
+        <v>321.1441765327294</v>
       </c>
       <c r="AB6" t="n">
-        <v>311.4899116337345</v>
+        <v>439.4036302132312</v>
       </c>
       <c r="AC6" t="n">
-        <v>281.7617516463399</v>
+        <v>397.4675644525479</v>
       </c>
       <c r="AD6" t="n">
-        <v>227656.6789431658</v>
+        <v>321144.1765327294</v>
       </c>
       <c r="AE6" t="n">
-        <v>311489.9116337345</v>
+        <v>439403.6302132312</v>
       </c>
       <c r="AF6" t="n">
         <v>1.173599037840282e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>21</v>
+        <v>20.41666666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>281761.7516463398</v>
+        <v>397467.5644525479</v>
       </c>
     </row>
     <row r="7">
@@ -11922,28 +11922,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>227.8100748347793</v>
+        <v>321.2975724243429</v>
       </c>
       <c r="AB7" t="n">
-        <v>311.6997946599892</v>
+        <v>439.613513239486</v>
       </c>
       <c r="AC7" t="n">
-        <v>281.9516037311415</v>
+        <v>397.6574165373496</v>
       </c>
       <c r="AD7" t="n">
-        <v>227810.0748347793</v>
+        <v>321297.5724243429</v>
       </c>
       <c r="AE7" t="n">
-        <v>311699.7946599891</v>
+        <v>439613.513239486</v>
       </c>
       <c r="AF7" t="n">
         <v>1.172650961347568e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>21</v>
+        <v>20.44270833333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>281951.6037311415</v>
+        <v>397657.4165373496</v>
       </c>
     </row>
   </sheetData>
@@ -12219,28 +12219,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>302.3581339237022</v>
+        <v>425.5300603674424</v>
       </c>
       <c r="AB2" t="n">
-        <v>413.6997379338526</v>
+        <v>582.229001656063</v>
       </c>
       <c r="AC2" t="n">
-        <v>374.2168155766738</v>
+        <v>526.6618829015437</v>
       </c>
       <c r="AD2" t="n">
-        <v>302358.1339237022</v>
+        <v>425530.0603674424</v>
       </c>
       <c r="AE2" t="n">
-        <v>413699.7379338527</v>
+        <v>582229.001656063</v>
       </c>
       <c r="AF2" t="n">
         <v>8.20148707132979e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>26</v>
+        <v>25.3125</v>
       </c>
       <c r="AH2" t="n">
-        <v>374216.8155766738</v>
+        <v>526661.8829015436</v>
       </c>
     </row>
     <row r="3">
@@ -12325,28 +12325,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>263.9015184539691</v>
+        <v>377.6581945769349</v>
       </c>
       <c r="AB3" t="n">
-        <v>361.0817000620284</v>
+        <v>516.7286029238264</v>
       </c>
       <c r="AC3" t="n">
-        <v>326.6205693894565</v>
+        <v>467.4127502939248</v>
       </c>
       <c r="AD3" t="n">
-        <v>263901.5184539691</v>
+        <v>377658.1945769349</v>
       </c>
       <c r="AE3" t="n">
-        <v>361081.7000620284</v>
+        <v>516728.6029238264</v>
       </c>
       <c r="AF3" t="n">
         <v>9.201394290009734e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>23</v>
+        <v>22.55208333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>326620.5693894565</v>
+        <v>467412.7502939248</v>
       </c>
     </row>
     <row r="4">
@@ -12431,28 +12431,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>251.325530967619</v>
+        <v>355.6338023808899</v>
       </c>
       <c r="AB4" t="n">
-        <v>343.8746791696307</v>
+        <v>486.5938578735894</v>
       </c>
       <c r="AC4" t="n">
-        <v>311.0557624209272</v>
+        <v>440.154023016902</v>
       </c>
       <c r="AD4" t="n">
-        <v>251325.530967619</v>
+        <v>355633.8023808899</v>
       </c>
       <c r="AE4" t="n">
-        <v>343874.6791696307</v>
+        <v>486593.8578735894</v>
       </c>
       <c r="AF4" t="n">
         <v>9.534909261546476e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>22</v>
+        <v>21.77083333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>311055.7624209272</v>
+        <v>440154.023016902</v>
       </c>
     </row>
     <row r="5">
@@ -12537,28 +12537,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>249.4202029619625</v>
+        <v>353.6269891487481</v>
       </c>
       <c r="AB5" t="n">
-        <v>341.2677253351536</v>
+        <v>483.8480474750217</v>
       </c>
       <c r="AC5" t="n">
-        <v>308.697612601529</v>
+        <v>437.6702689090044</v>
       </c>
       <c r="AD5" t="n">
-        <v>249420.2029619625</v>
+        <v>353626.9891487481</v>
       </c>
       <c r="AE5" t="n">
-        <v>341267.7253351536</v>
+        <v>483848.0474750217</v>
       </c>
       <c r="AF5" t="n">
         <v>9.734508087724295e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>22</v>
+        <v>21.328125</v>
       </c>
       <c r="AH5" t="n">
-        <v>308697.6126015291</v>
+        <v>437670.2689090045</v>
       </c>
     </row>
     <row r="6">
@@ -12643,28 +12643,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>248.2709304672395</v>
+        <v>343.0634773631078</v>
       </c>
       <c r="AB6" t="n">
-        <v>339.6952400055503</v>
+        <v>469.3945846206593</v>
       </c>
       <c r="AC6" t="n">
-        <v>307.2752030647856</v>
+        <v>424.5962242639</v>
       </c>
       <c r="AD6" t="n">
-        <v>248270.9304672395</v>
+        <v>343063.4773631078</v>
       </c>
       <c r="AE6" t="n">
-        <v>339695.2400055503</v>
+        <v>469394.5846206593</v>
       </c>
       <c r="AF6" t="n">
         <v>9.83151758111823e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>22</v>
+        <v>21.11979166666666</v>
       </c>
       <c r="AH6" t="n">
-        <v>307275.2030647856</v>
+        <v>424596.2242639</v>
       </c>
     </row>
     <row r="7">
@@ -12749,28 +12749,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>237.4725410988381</v>
+        <v>341.7466470933281</v>
       </c>
       <c r="AB7" t="n">
-        <v>324.9204072803942</v>
+        <v>467.5928393510953</v>
       </c>
       <c r="AC7" t="n">
-        <v>293.9104596383057</v>
+        <v>422.9664350340977</v>
       </c>
       <c r="AD7" t="n">
-        <v>237472.5410988381</v>
+        <v>341746.6470933281</v>
       </c>
       <c r="AE7" t="n">
-        <v>324920.4072803942</v>
+        <v>467592.8393510953</v>
       </c>
       <c r="AF7" t="n">
         <v>9.934983745806253e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>21</v>
+        <v>20.88541666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>293910.4596383056</v>
+        <v>422966.4350340978</v>
       </c>
     </row>
     <row r="8">
@@ -12855,28 +12855,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>236.4264491351466</v>
+        <v>340.7005551296365</v>
       </c>
       <c r="AB8" t="n">
-        <v>323.4890981053518</v>
+        <v>466.1615301760521</v>
       </c>
       <c r="AC8" t="n">
-        <v>292.6157526020738</v>
+        <v>421.6717279978656</v>
       </c>
       <c r="AD8" t="n">
-        <v>236426.4491351466</v>
+        <v>340700.5551296365</v>
       </c>
       <c r="AE8" t="n">
-        <v>323489.0981053518</v>
+        <v>466161.5301760521</v>
       </c>
       <c r="AF8" t="n">
         <v>9.993173499444355e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>21</v>
+        <v>20.78125</v>
       </c>
       <c r="AH8" t="n">
-        <v>292615.7526020738</v>
+        <v>421671.7279978656</v>
       </c>
     </row>
     <row r="9">
@@ -12961,28 +12961,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>236.0473910188759</v>
+        <v>340.3214970133658</v>
       </c>
       <c r="AB9" t="n">
-        <v>322.9704540678067</v>
+        <v>465.6428861385068</v>
       </c>
       <c r="AC9" t="n">
-        <v>292.1466072235504</v>
+        <v>421.2025826193422</v>
       </c>
       <c r="AD9" t="n">
-        <v>236047.3910188759</v>
+        <v>340321.4970133658</v>
       </c>
       <c r="AE9" t="n">
-        <v>322970.4540678067</v>
+        <v>465642.8861385068</v>
       </c>
       <c r="AF9" t="n">
         <v>9.987195100097974e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>21</v>
+        <v>20.78125</v>
       </c>
       <c r="AH9" t="n">
-        <v>292146.6072235504</v>
+        <v>421202.5826193422</v>
       </c>
     </row>
     <row r="10">
@@ -13067,28 +13067,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>235.6556755060129</v>
+        <v>339.9297815005028</v>
       </c>
       <c r="AB10" t="n">
-        <v>322.434491621839</v>
+        <v>465.1069236925388</v>
       </c>
       <c r="AC10" t="n">
-        <v>291.6617962811976</v>
+        <v>420.7177716769893</v>
       </c>
       <c r="AD10" t="n">
-        <v>235655.6755060129</v>
+        <v>339929.7815005028</v>
       </c>
       <c r="AE10" t="n">
-        <v>322434.491621839</v>
+        <v>465106.9236925388</v>
       </c>
       <c r="AF10" t="n">
         <v>1.002458002401067e-05</v>
       </c>
       <c r="AG10" t="n">
-        <v>21</v>
+        <v>20.703125</v>
       </c>
       <c r="AH10" t="n">
-        <v>291661.7962811976</v>
+        <v>420717.7716769893</v>
       </c>
     </row>
   </sheetData>
@@ -13364,28 +13364,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>246.4528965720531</v>
+        <v>348.1492518673008</v>
       </c>
       <c r="AB2" t="n">
-        <v>337.2077258241628</v>
+        <v>476.353165665832</v>
       </c>
       <c r="AC2" t="n">
-        <v>305.0250937456208</v>
+        <v>430.8906881005512</v>
       </c>
       <c r="AD2" t="n">
-        <v>246452.8965720531</v>
+        <v>348149.2518673008</v>
       </c>
       <c r="AE2" t="n">
-        <v>337207.7258241628</v>
+        <v>476353.165665832</v>
       </c>
       <c r="AF2" t="n">
         <v>1.235587297603741e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>23</v>
+        <v>22.21354166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>305025.0937456209</v>
+        <v>430890.6881005513</v>
       </c>
     </row>
     <row r="3">
@@ -13470,28 +13470,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>223.1598650756852</v>
+        <v>324.8893747598561</v>
       </c>
       <c r="AB3" t="n">
-        <v>305.3371725148242</v>
+        <v>444.5279756540705</v>
       </c>
       <c r="AC3" t="n">
-        <v>276.1962213135128</v>
+        <v>402.1028495565776</v>
       </c>
       <c r="AD3" t="n">
-        <v>223159.8650756852</v>
+        <v>324889.3747598561</v>
       </c>
       <c r="AE3" t="n">
-        <v>305337.1725148242</v>
+        <v>444527.9756540706</v>
       </c>
       <c r="AF3" t="n">
         <v>1.323903023779106e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>21</v>
+        <v>20.72916666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>276196.2213135128</v>
+        <v>402102.8495565776</v>
       </c>
     </row>
     <row r="4">
@@ -13576,28 +13576,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>221.1645506673228</v>
+        <v>313.6096627713929</v>
       </c>
       <c r="AB4" t="n">
-        <v>302.6070953142451</v>
+        <v>429.0945760856829</v>
       </c>
       <c r="AC4" t="n">
-        <v>273.7266988492686</v>
+        <v>388.1423919820846</v>
       </c>
       <c r="AD4" t="n">
-        <v>221164.5506673228</v>
+        <v>313609.6627713929</v>
       </c>
       <c r="AE4" t="n">
-        <v>302607.0953142451</v>
+        <v>429094.576085683</v>
       </c>
       <c r="AF4" t="n">
         <v>1.351862114839994e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>21</v>
+        <v>20.3125</v>
       </c>
       <c r="AH4" t="n">
-        <v>273726.6988492687</v>
+        <v>388142.3919820845</v>
       </c>
     </row>
     <row r="5">
@@ -13682,28 +13682,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>221.4263869473958</v>
+        <v>313.8714990514659</v>
       </c>
       <c r="AB5" t="n">
-        <v>302.9653512640422</v>
+        <v>429.4528320354802</v>
       </c>
       <c r="AC5" t="n">
-        <v>274.0507633540327</v>
+        <v>388.4664564868485</v>
       </c>
       <c r="AD5" t="n">
-        <v>221426.3869473958</v>
+        <v>313871.4990514659</v>
       </c>
       <c r="AE5" t="n">
-        <v>302965.3512640422</v>
+        <v>429452.8320354802</v>
       </c>
       <c r="AF5" t="n">
         <v>1.349795756677123e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>21</v>
+        <v>20.33854166666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>274050.7633540326</v>
+        <v>388466.4564868485</v>
       </c>
     </row>
   </sheetData>
@@ -13979,28 +13979,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>392.9642699510698</v>
+        <v>548.2729637135171</v>
       </c>
       <c r="AB2" t="n">
-        <v>537.6710505071059</v>
+        <v>750.1712570488841</v>
       </c>
       <c r="AC2" t="n">
-        <v>486.3564800727659</v>
+        <v>678.5759651481097</v>
       </c>
       <c r="AD2" t="n">
-        <v>392964.2699510697</v>
+        <v>548272.9637135172</v>
       </c>
       <c r="AE2" t="n">
-        <v>537671.0505071059</v>
+        <v>750171.2570488841</v>
       </c>
       <c r="AF2" t="n">
         <v>5.488012945193899e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>31</v>
+        <v>30.546875</v>
       </c>
       <c r="AH2" t="n">
-        <v>486356.4800727658</v>
+        <v>678575.9651481097</v>
       </c>
     </row>
     <row r="3">
@@ -14085,28 +14085,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>320.513865205612</v>
+        <v>446.6284530638748</v>
       </c>
       <c r="AB3" t="n">
-        <v>438.5412104480958</v>
+        <v>611.0967533387151</v>
       </c>
       <c r="AC3" t="n">
-        <v>396.6874528193833</v>
+        <v>552.7745368797474</v>
       </c>
       <c r="AD3" t="n">
-        <v>320513.865205612</v>
+        <v>446628.4530638747</v>
       </c>
       <c r="AE3" t="n">
-        <v>438541.2104480958</v>
+        <v>611096.7533387151</v>
       </c>
       <c r="AF3" t="n">
         <v>6.633558424056428e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>26</v>
+        <v>25.26041666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>396687.4528193834</v>
+        <v>552774.5368797474</v>
       </c>
     </row>
     <row r="4">
@@ -14191,28 +14191,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>294.8498743928498</v>
+        <v>420.9976166400361</v>
       </c>
       <c r="AB4" t="n">
-        <v>403.4266060027077</v>
+        <v>576.0275121909207</v>
       </c>
       <c r="AC4" t="n">
-        <v>364.9241369386062</v>
+        <v>521.0522548871094</v>
       </c>
       <c r="AD4" t="n">
-        <v>294849.8743928497</v>
+        <v>420997.6166400361</v>
       </c>
       <c r="AE4" t="n">
-        <v>403426.6060027077</v>
+        <v>576027.5121909207</v>
       </c>
       <c r="AF4" t="n">
         <v>7.036536110064921e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>24</v>
+        <v>23.828125</v>
       </c>
       <c r="AH4" t="n">
-        <v>364924.1369386062</v>
+        <v>521052.2548871094</v>
       </c>
     </row>
     <row r="5">
@@ -14297,28 +14297,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>291.9119385606629</v>
+        <v>408.3175977200988</v>
       </c>
       <c r="AB5" t="n">
-        <v>399.4067925845282</v>
+        <v>558.6781509017084</v>
       </c>
       <c r="AC5" t="n">
-        <v>361.2879688712143</v>
+        <v>505.358692289358</v>
       </c>
       <c r="AD5" t="n">
-        <v>291911.9385606628</v>
+        <v>408317.5977200989</v>
       </c>
       <c r="AE5" t="n">
-        <v>399406.7925845282</v>
+        <v>558678.1509017084</v>
       </c>
       <c r="AF5" t="n">
         <v>7.248064001139644e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>24</v>
+        <v>23.125</v>
       </c>
       <c r="AH5" t="n">
-        <v>361287.9688712143</v>
+        <v>505358.692289358</v>
       </c>
     </row>
     <row r="6">
@@ -14403,28 +14403,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>280.1580423587606</v>
+        <v>396.6310213259009</v>
       </c>
       <c r="AB6" t="n">
-        <v>383.3245932557822</v>
+        <v>542.6880615038039</v>
       </c>
       <c r="AC6" t="n">
-        <v>346.7406320748951</v>
+        <v>490.8946745813581</v>
       </c>
       <c r="AD6" t="n">
-        <v>280158.0423587605</v>
+        <v>396631.0213259009</v>
       </c>
       <c r="AE6" t="n">
-        <v>383324.5932557822</v>
+        <v>542688.0615038038</v>
       </c>
       <c r="AF6" t="n">
         <v>7.384878207536011e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>23</v>
+        <v>22.68229166666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>346740.6320748951</v>
+        <v>490894.6745813581</v>
       </c>
     </row>
     <row r="7">
@@ -14509,28 +14509,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>278.702618979084</v>
+        <v>385.433514858474</v>
       </c>
       <c r="AB7" t="n">
-        <v>381.3332187789608</v>
+        <v>527.3671391559495</v>
       </c>
       <c r="AC7" t="n">
-        <v>344.93931158323</v>
+        <v>477.0359595593334</v>
       </c>
       <c r="AD7" t="n">
-        <v>278702.618979084</v>
+        <v>385433.514858474</v>
       </c>
       <c r="AE7" t="n">
-        <v>381333.2187789608</v>
+        <v>527367.1391559496</v>
       </c>
       <c r="AF7" t="n">
         <v>7.486298334196724e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>23</v>
+        <v>22.39583333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>344939.31158323</v>
+        <v>477035.9595593335</v>
       </c>
     </row>
     <row r="8">
@@ -14615,28 +14615,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>278.0049565966867</v>
+        <v>384.7358524760767</v>
       </c>
       <c r="AB8" t="n">
-        <v>380.3786463286728</v>
+        <v>526.4125667056616</v>
       </c>
       <c r="AC8" t="n">
-        <v>344.0758421878466</v>
+        <v>476.1724901639501</v>
       </c>
       <c r="AD8" t="n">
-        <v>278004.9565966867</v>
+        <v>384735.8524760767</v>
       </c>
       <c r="AE8" t="n">
-        <v>380378.6463286728</v>
+        <v>526412.5667056616</v>
       </c>
       <c r="AF8" t="n">
         <v>7.526132762117397e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>23</v>
+        <v>22.265625</v>
       </c>
       <c r="AH8" t="n">
-        <v>344075.8421878466</v>
+        <v>476172.4901639501</v>
       </c>
     </row>
     <row r="9">
@@ -14721,28 +14721,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>277.1582455608119</v>
+        <v>383.8891414402019</v>
       </c>
       <c r="AB9" t="n">
-        <v>379.2201389351344</v>
+        <v>525.2540593121231</v>
       </c>
       <c r="AC9" t="n">
-        <v>343.0279011139721</v>
+        <v>475.1245490900756</v>
       </c>
       <c r="AD9" t="n">
-        <v>277158.2455608119</v>
+        <v>383889.1414402019</v>
       </c>
       <c r="AE9" t="n">
-        <v>379220.1389351344</v>
+        <v>525254.0593121231</v>
       </c>
       <c r="AF9" t="n">
         <v>7.578580352998413e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>23</v>
+        <v>22.109375</v>
       </c>
       <c r="AH9" t="n">
-        <v>343027.9011139721</v>
+        <v>475124.5490900756</v>
       </c>
     </row>
     <row r="10">
@@ -14827,28 +14827,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>266.6737126883979</v>
+        <v>383.1125262367575</v>
       </c>
       <c r="AB10" t="n">
-        <v>364.874738514152</v>
+        <v>524.1914601289258</v>
       </c>
       <c r="AC10" t="n">
-        <v>330.0516055752724</v>
+        <v>474.1633628815553</v>
       </c>
       <c r="AD10" t="n">
-        <v>266673.7126883979</v>
+        <v>383112.5262367575</v>
       </c>
       <c r="AE10" t="n">
-        <v>364874.738514152</v>
+        <v>524191.4601289257</v>
       </c>
       <c r="AF10" t="n">
         <v>7.622726423359612e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>22</v>
+        <v>21.97916666666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>330051.6055752724</v>
+        <v>474163.3628815553</v>
       </c>
     </row>
     <row r="11">
@@ -14933,28 +14933,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>265.7137158980662</v>
+        <v>382.1525294464257</v>
       </c>
       <c r="AB11" t="n">
-        <v>363.5612285535508</v>
+        <v>522.8779501683244</v>
       </c>
       <c r="AC11" t="n">
-        <v>328.8634551617881</v>
+        <v>472.975212468071</v>
       </c>
       <c r="AD11" t="n">
-        <v>265713.7158980662</v>
+        <v>382152.5294464257</v>
       </c>
       <c r="AE11" t="n">
-        <v>363561.2285535508</v>
+        <v>522877.9501683245</v>
       </c>
       <c r="AF11" t="n">
         <v>7.669446608610676e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>22</v>
+        <v>21.84895833333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>328863.4551617882</v>
+        <v>472975.212468071</v>
       </c>
     </row>
     <row r="12">
@@ -15039,28 +15039,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>265.5552706102603</v>
+        <v>381.99408415862</v>
       </c>
       <c r="AB12" t="n">
-        <v>363.344436720662</v>
+        <v>522.6611583354357</v>
       </c>
       <c r="AC12" t="n">
-        <v>328.6673536371611</v>
+        <v>472.779110943444</v>
       </c>
       <c r="AD12" t="n">
-        <v>265555.2706102603</v>
+        <v>381994.08415862</v>
       </c>
       <c r="AE12" t="n">
-        <v>363344.4367206621</v>
+        <v>522661.1583354358</v>
       </c>
       <c r="AF12" t="n">
         <v>7.676010601579834e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>22</v>
+        <v>21.82291666666667</v>
       </c>
       <c r="AH12" t="n">
-        <v>328667.3536371611</v>
+        <v>472779.110943444</v>
       </c>
     </row>
     <row r="13">
@@ -15145,28 +15145,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>265.1220418277593</v>
+        <v>381.5608553761189</v>
       </c>
       <c r="AB13" t="n">
-        <v>362.7516739877391</v>
+        <v>522.0683956025129</v>
       </c>
       <c r="AC13" t="n">
-        <v>328.1311633475206</v>
+        <v>472.2429206538035</v>
       </c>
       <c r="AD13" t="n">
-        <v>265122.0418277593</v>
+        <v>381560.8553761189</v>
       </c>
       <c r="AE13" t="n">
-        <v>362751.6739877391</v>
+        <v>522068.3956025129</v>
       </c>
       <c r="AF13" t="n">
         <v>7.66841696265473e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>22</v>
+        <v>21.84895833333333</v>
       </c>
       <c r="AH13" t="n">
-        <v>328131.1633475206</v>
+        <v>472242.9206538036</v>
       </c>
     </row>
     <row r="14">
@@ -15251,28 +15251,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>264.4728169302683</v>
+        <v>371.2710326173627</v>
       </c>
       <c r="AB14" t="n">
-        <v>361.863375841211</v>
+        <v>507.9894061490412</v>
       </c>
       <c r="AC14" t="n">
-        <v>327.3276431293629</v>
+        <v>459.5076101937854</v>
       </c>
       <c r="AD14" t="n">
-        <v>264472.8169302683</v>
+        <v>371271.0326173627</v>
       </c>
       <c r="AE14" t="n">
-        <v>361863.375841211</v>
+        <v>507989.4061490412</v>
       </c>
       <c r="AF14" t="n">
         <v>7.721572435130458e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>22</v>
+        <v>21.69270833333333</v>
       </c>
       <c r="AH14" t="n">
-        <v>327327.6431293628</v>
+        <v>459507.6101937854</v>
       </c>
     </row>
     <row r="15">
@@ -15357,28 +15357,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>264.1623981796183</v>
+        <v>370.9606138667127</v>
       </c>
       <c r="AB15" t="n">
-        <v>361.4386472118629</v>
+        <v>507.564677519693</v>
       </c>
       <c r="AC15" t="n">
-        <v>326.9434500042893</v>
+        <v>459.1234170687118</v>
       </c>
       <c r="AD15" t="n">
-        <v>264162.3981796183</v>
+        <v>370960.6138667127</v>
       </c>
       <c r="AE15" t="n">
-        <v>361438.6472118628</v>
+        <v>507564.677519693</v>
       </c>
       <c r="AF15" t="n">
         <v>7.723374315553365e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>22</v>
+        <v>21.69270833333333</v>
       </c>
       <c r="AH15" t="n">
-        <v>326943.4500042893</v>
+        <v>459123.4170687118</v>
       </c>
     </row>
     <row r="16">
@@ -15463,28 +15463,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>263.6387835975423</v>
+        <v>370.4369992846367</v>
       </c>
       <c r="AB16" t="n">
-        <v>360.7222146404214</v>
+        <v>506.8482449482517</v>
       </c>
       <c r="AC16" t="n">
-        <v>326.2953927519468</v>
+        <v>458.4753598163694</v>
       </c>
       <c r="AD16" t="n">
-        <v>263638.7835975423</v>
+        <v>370436.9992846368</v>
       </c>
       <c r="AE16" t="n">
-        <v>360722.2146404214</v>
+        <v>506848.2449482517</v>
       </c>
       <c r="AF16" t="n">
         <v>7.719255731729579e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>22</v>
+        <v>21.71875</v>
       </c>
       <c r="AH16" t="n">
-        <v>326295.3927519468</v>
+        <v>458475.3598163694</v>
       </c>
     </row>
     <row r="17">
@@ -15569,28 +15569,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>262.8714145270213</v>
+        <v>369.6696302141158</v>
       </c>
       <c r="AB17" t="n">
-        <v>359.6722664242006</v>
+        <v>505.7982967320308</v>
       </c>
       <c r="AC17" t="n">
-        <v>325.3456501198705</v>
+        <v>457.5256171842931</v>
       </c>
       <c r="AD17" t="n">
-        <v>262871.4145270213</v>
+        <v>369669.6302141158</v>
       </c>
       <c r="AE17" t="n">
-        <v>359672.2664242006</v>
+        <v>505798.2967320308</v>
       </c>
       <c r="AF17" t="n">
         <v>7.773891320266981e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>22</v>
+        <v>21.5625</v>
       </c>
       <c r="AH17" t="n">
-        <v>325345.6501198706</v>
+        <v>457525.6171842931</v>
       </c>
     </row>
     <row r="18">
@@ -15675,28 +15675,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>262.7147497515867</v>
+        <v>369.5129654386812</v>
       </c>
       <c r="AB18" t="n">
-        <v>359.4579107668889</v>
+        <v>505.5839410747191</v>
       </c>
       <c r="AC18" t="n">
-        <v>325.1517522656426</v>
+        <v>457.3317193300651</v>
       </c>
       <c r="AD18" t="n">
-        <v>262714.7497515868</v>
+        <v>369512.9654386812</v>
       </c>
       <c r="AE18" t="n">
-        <v>359457.9107668889</v>
+        <v>505583.9410747191</v>
       </c>
       <c r="AF18" t="n">
         <v>7.77524273058416e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>22</v>
+        <v>21.5625</v>
       </c>
       <c r="AH18" t="n">
-        <v>325151.7522656426</v>
+        <v>457331.7193300651</v>
       </c>
     </row>
     <row r="19">
@@ -15781,28 +15781,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>262.3633955208424</v>
+        <v>369.1616112079369</v>
       </c>
       <c r="AB19" t="n">
-        <v>358.9771724077298</v>
+        <v>505.10320271556</v>
       </c>
       <c r="AC19" t="n">
-        <v>324.7168949007611</v>
+        <v>456.8968619651836</v>
       </c>
       <c r="AD19" t="n">
-        <v>262363.3955208424</v>
+        <v>369161.6112079368</v>
       </c>
       <c r="AE19" t="n">
-        <v>358977.1724077298</v>
+        <v>505103.20271556</v>
       </c>
       <c r="AF19" t="n">
         <v>7.77601496505112e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>22</v>
+        <v>21.5625</v>
       </c>
       <c r="AH19" t="n">
-        <v>324716.8949007611</v>
+        <v>456896.8619651836</v>
       </c>
     </row>
     <row r="20">
@@ -15887,28 +15887,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>261.7151455724436</v>
+        <v>368.513361259538</v>
       </c>
       <c r="AB20" t="n">
-        <v>358.0902082295612</v>
+        <v>504.2162385373915</v>
       </c>
       <c r="AC20" t="n">
-        <v>323.9145813388949</v>
+        <v>456.0945484033174</v>
       </c>
       <c r="AD20" t="n">
-        <v>261715.1455724436</v>
+        <v>368513.361259538</v>
       </c>
       <c r="AE20" t="n">
-        <v>358090.2082295612</v>
+        <v>504216.2385373915</v>
       </c>
       <c r="AF20" t="n">
         <v>7.787212364822037e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>22</v>
+        <v>21.51041666666667</v>
       </c>
       <c r="AH20" t="n">
-        <v>323914.5813388949</v>
+        <v>456094.5484033175</v>
       </c>
     </row>
     <row r="21">
@@ -15993,28 +15993,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>261.8052868822095</v>
+        <v>368.6035025693039</v>
       </c>
       <c r="AB21" t="n">
-        <v>358.2135435463368</v>
+        <v>504.339573854167</v>
       </c>
       <c r="AC21" t="n">
-        <v>324.0261457061396</v>
+        <v>456.2061127705622</v>
       </c>
       <c r="AD21" t="n">
-        <v>261805.2868822095</v>
+        <v>368603.5025693039</v>
       </c>
       <c r="AE21" t="n">
-        <v>358213.5435463368</v>
+        <v>504339.573854167</v>
       </c>
       <c r="AF21" t="n">
         <v>7.780970136214113e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>22</v>
+        <v>21.53645833333333</v>
       </c>
       <c r="AH21" t="n">
-        <v>324026.1457061396</v>
+        <v>456206.1127705622</v>
       </c>
     </row>
   </sheetData>
@@ -16290,28 +16290,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>230.858152749997</v>
+        <v>331.9428547444134</v>
       </c>
       <c r="AB2" t="n">
-        <v>315.8703093352949</v>
+        <v>454.1788581465169</v>
       </c>
       <c r="AC2" t="n">
-        <v>285.7240903391915</v>
+        <v>410.8326653690434</v>
       </c>
       <c r="AD2" t="n">
-        <v>230858.152749997</v>
+        <v>331942.8547444133</v>
       </c>
       <c r="AE2" t="n">
-        <v>315870.3093352949</v>
+        <v>454178.8581465168</v>
       </c>
       <c r="AF2" t="n">
         <v>1.391792376727756e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>22</v>
+        <v>21.58854166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>285724.0903391915</v>
+        <v>410832.6653690434</v>
       </c>
     </row>
     <row r="3">
@@ -16396,28 +16396,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>217.8002225189595</v>
+        <v>309.6280863425427</v>
       </c>
       <c r="AB3" t="n">
-        <v>298.0038731179739</v>
+        <v>423.6468075609752</v>
       </c>
       <c r="AC3" t="n">
-        <v>269.5628017187452</v>
+        <v>383.2145508393837</v>
       </c>
       <c r="AD3" t="n">
-        <v>217800.2225189595</v>
+        <v>309628.0863425427</v>
       </c>
       <c r="AE3" t="n">
-        <v>298003.8731179739</v>
+        <v>423646.8075609752</v>
       </c>
       <c r="AF3" t="n">
         <v>1.472633813057929e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>21</v>
+        <v>20.390625</v>
       </c>
       <c r="AH3" t="n">
-        <v>269562.8017187452</v>
+        <v>383214.5508393837</v>
       </c>
     </row>
     <row r="4">
@@ -16502,28 +16502,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>217.6396663079196</v>
+        <v>309.4675301315028</v>
       </c>
       <c r="AB4" t="n">
-        <v>297.7841930267891</v>
+        <v>423.4271274697902</v>
       </c>
       <c r="AC4" t="n">
-        <v>269.36408758714</v>
+        <v>383.0158367077785</v>
       </c>
       <c r="AD4" t="n">
-        <v>217639.6663079195</v>
+        <v>309467.5301315028</v>
       </c>
       <c r="AE4" t="n">
-        <v>297784.1930267891</v>
+        <v>423427.1274697902</v>
       </c>
       <c r="AF4" t="n">
         <v>1.477663331642398e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>21</v>
+        <v>20.33854166666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>269364.08758714</v>
+        <v>383015.8367077785</v>
       </c>
     </row>
   </sheetData>
@@ -16799,28 +16799,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>339.0514406311627</v>
+        <v>473.1881683749801</v>
       </c>
       <c r="AB2" t="n">
-        <v>463.9051389654433</v>
+        <v>647.4369275593123</v>
       </c>
       <c r="AC2" t="n">
-        <v>419.6306835975323</v>
+        <v>585.6464558764857</v>
       </c>
       <c r="AD2" t="n">
-        <v>339051.4406311627</v>
+        <v>473188.1683749802</v>
       </c>
       <c r="AE2" t="n">
-        <v>463905.1389654432</v>
+        <v>647436.9275593123</v>
       </c>
       <c r="AF2" t="n">
         <v>6.792246120400128e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>28</v>
+        <v>27.5</v>
       </c>
       <c r="AH2" t="n">
-        <v>419630.6835975323</v>
+        <v>585646.4558764857</v>
       </c>
     </row>
     <row r="3">
@@ -16905,28 +16905,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>285.4994510552626</v>
+        <v>400.5607764583792</v>
       </c>
       <c r="AB3" t="n">
-        <v>390.6329442806569</v>
+        <v>548.0649258446211</v>
       </c>
       <c r="AC3" t="n">
-        <v>353.3514843352909</v>
+        <v>495.7583785359643</v>
       </c>
       <c r="AD3" t="n">
-        <v>285499.4510552626</v>
+        <v>400560.7764583792</v>
       </c>
       <c r="AE3" t="n">
-        <v>390632.9442806569</v>
+        <v>548064.9258446211</v>
       </c>
       <c r="AF3" t="n">
         <v>7.867638479805975e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>24</v>
+        <v>23.72395833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>353351.4843352909</v>
+        <v>495758.3785359643</v>
       </c>
     </row>
     <row r="4">
@@ -17011,28 +17011,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>271.5805448596263</v>
+        <v>386.6077048439621</v>
       </c>
       <c r="AB4" t="n">
-        <v>371.5884827649841</v>
+        <v>528.9737176957005</v>
       </c>
       <c r="AC4" t="n">
-        <v>336.1245994976043</v>
+        <v>478.4892084980979</v>
       </c>
       <c r="AD4" t="n">
-        <v>271580.5448596263</v>
+        <v>386607.7048439621</v>
       </c>
       <c r="AE4" t="n">
-        <v>371588.4827649841</v>
+        <v>528973.7176957006</v>
       </c>
       <c r="AF4" t="n">
         <v>8.248546942376079e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>23</v>
+        <v>22.63020833333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>336124.5994976043</v>
+        <v>478489.2084980978</v>
       </c>
     </row>
     <row r="5">
@@ -17117,28 +17117,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>269.2884518330271</v>
+        <v>374.6940136448463</v>
       </c>
       <c r="AB5" t="n">
-        <v>368.4523399659834</v>
+        <v>512.6728798021092</v>
       </c>
       <c r="AC5" t="n">
-        <v>333.2877657657363</v>
+        <v>463.7440996947011</v>
       </c>
       <c r="AD5" t="n">
-        <v>269288.4518330271</v>
+        <v>374694.0136448463</v>
       </c>
       <c r="AE5" t="n">
-        <v>368452.3399659834</v>
+        <v>512672.8798021091</v>
       </c>
       <c r="AF5" t="n">
         <v>8.450474320124087e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>23</v>
+        <v>22.109375</v>
       </c>
       <c r="AH5" t="n">
-        <v>333287.7657657362</v>
+        <v>463744.0996947011</v>
       </c>
     </row>
     <row r="6">
@@ -17223,28 +17223,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>257.9283879792591</v>
+        <v>363.4012695987859</v>
       </c>
       <c r="AB6" t="n">
-        <v>352.9089994304448</v>
+        <v>497.2216491975833</v>
       </c>
       <c r="AC6" t="n">
-        <v>319.2278598358001</v>
+        <v>449.7675128531328</v>
       </c>
       <c r="AD6" t="n">
-        <v>257928.3879792591</v>
+        <v>363401.2695987859</v>
       </c>
       <c r="AE6" t="n">
-        <v>352908.9994304448</v>
+        <v>497221.6491975833</v>
       </c>
       <c r="AF6" t="n">
         <v>8.595968158707435e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>22</v>
+        <v>21.71875</v>
       </c>
       <c r="AH6" t="n">
-        <v>319227.8598358001</v>
+        <v>449767.5128531328</v>
       </c>
     </row>
     <row r="7">
@@ -17329,28 +17329,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>257.1930323538883</v>
+        <v>362.6659139734151</v>
       </c>
       <c r="AB7" t="n">
-        <v>351.9028534222124</v>
+        <v>496.2155031893505</v>
       </c>
       <c r="AC7" t="n">
-        <v>318.3177389904583</v>
+        <v>448.8573920077908</v>
       </c>
       <c r="AD7" t="n">
-        <v>257193.0323538883</v>
+        <v>362665.9139734151</v>
       </c>
       <c r="AE7" t="n">
-        <v>351902.8534222124</v>
+        <v>496215.5031893505</v>
       </c>
       <c r="AF7" t="n">
         <v>8.638562214951155e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>22</v>
+        <v>21.61458333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>318317.7389904583</v>
+        <v>448857.3920077909</v>
       </c>
     </row>
     <row r="8">
@@ -17435,28 +17435,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>256.315191718675</v>
+        <v>361.6865881117166</v>
       </c>
       <c r="AB8" t="n">
-        <v>350.7017531375186</v>
+        <v>494.8755463405667</v>
       </c>
       <c r="AC8" t="n">
-        <v>317.2312700311805</v>
+        <v>447.6453187600137</v>
       </c>
       <c r="AD8" t="n">
-        <v>256315.191718675</v>
+        <v>361686.5881117166</v>
       </c>
       <c r="AE8" t="n">
-        <v>350701.7531375185</v>
+        <v>494875.5463405667</v>
       </c>
       <c r="AF8" t="n">
         <v>8.690908445688386e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>22</v>
+        <v>21.484375</v>
       </c>
       <c r="AH8" t="n">
-        <v>317231.2700311805</v>
+        <v>447645.3187600137</v>
       </c>
     </row>
     <row r="9">
@@ -17541,28 +17541,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>255.6194331530033</v>
+        <v>360.9908295460448</v>
       </c>
       <c r="AB9" t="n">
-        <v>349.7497855732654</v>
+        <v>493.923578776313</v>
       </c>
       <c r="AC9" t="n">
-        <v>316.3701569151644</v>
+        <v>446.7842056439976</v>
       </c>
       <c r="AD9" t="n">
-        <v>255619.4331530033</v>
+        <v>360990.8295460448</v>
       </c>
       <c r="AE9" t="n">
-        <v>349749.7855732654</v>
+        <v>493923.5787763131</v>
       </c>
       <c r="AF9" t="n">
         <v>8.734147866420649e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>22</v>
+        <v>21.38020833333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>316370.1569151644</v>
+        <v>446784.2056439976</v>
       </c>
     </row>
     <row r="10">
@@ -17647,28 +17647,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>254.7404356661958</v>
+        <v>360.1118320592373</v>
       </c>
       <c r="AB10" t="n">
-        <v>348.5471024331837</v>
+        <v>492.7208956362308</v>
       </c>
       <c r="AC10" t="n">
-        <v>315.2822561659954</v>
+        <v>445.6963048948284</v>
       </c>
       <c r="AD10" t="n">
-        <v>254740.4356661958</v>
+        <v>360111.8320592373</v>
       </c>
       <c r="AE10" t="n">
-        <v>348547.1024331838</v>
+        <v>492720.8956362308</v>
       </c>
       <c r="AF10" t="n">
         <v>8.797537000628474e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>22</v>
+        <v>21.22395833333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>315282.2561659954</v>
+        <v>445696.3048948284</v>
       </c>
     </row>
     <row r="11">
@@ -17753,28 +17753,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>254.2032852629493</v>
+        <v>359.5746816559908</v>
       </c>
       <c r="AB11" t="n">
-        <v>347.812149554059</v>
+        <v>491.9859427571056</v>
       </c>
       <c r="AC11" t="n">
-        <v>314.6174461581412</v>
+        <v>445.0314948869741</v>
       </c>
       <c r="AD11" t="n">
-        <v>254203.2852629493</v>
+        <v>359574.6816559908</v>
       </c>
       <c r="AE11" t="n">
-        <v>347812.149554059</v>
+        <v>491985.9427571056</v>
       </c>
       <c r="AF11" t="n">
         <v>8.785848732669338e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>22</v>
+        <v>21.25</v>
       </c>
       <c r="AH11" t="n">
-        <v>314617.4461581412</v>
+        <v>445031.4948869741</v>
       </c>
     </row>
     <row r="12">
@@ -17859,28 +17859,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>253.6045526785976</v>
+        <v>349.4558361256077</v>
       </c>
       <c r="AB12" t="n">
-        <v>346.992937217932</v>
+        <v>478.1408918904768</v>
       </c>
       <c r="AC12" t="n">
-        <v>313.8764182976022</v>
+        <v>432.5077962434054</v>
       </c>
       <c r="AD12" t="n">
-        <v>253604.5526785976</v>
+        <v>349455.8361256077</v>
       </c>
       <c r="AE12" t="n">
-        <v>346992.937217932</v>
+        <v>478140.8918904768</v>
       </c>
       <c r="AF12" t="n">
         <v>8.840274471202981e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>22</v>
+        <v>21.11979166666666</v>
       </c>
       <c r="AH12" t="n">
-        <v>313876.4182976022</v>
+        <v>432507.7962434054</v>
       </c>
     </row>
     <row r="13">
@@ -17965,28 +17965,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>252.8535335291154</v>
+        <v>348.7048169761255</v>
       </c>
       <c r="AB13" t="n">
-        <v>345.9653596849845</v>
+        <v>477.1133143575288</v>
       </c>
       <c r="AC13" t="n">
-        <v>312.9469113221848</v>
+        <v>431.5782892679878</v>
       </c>
       <c r="AD13" t="n">
-        <v>252853.5335291154</v>
+        <v>348704.8169761255</v>
       </c>
       <c r="AE13" t="n">
-        <v>345965.3596849845</v>
+        <v>477113.3143575288</v>
       </c>
       <c r="AF13" t="n">
         <v>8.845437387111312e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>22</v>
+        <v>21.11979166666666</v>
       </c>
       <c r="AH13" t="n">
-        <v>312946.9113221848</v>
+        <v>431578.2892679878</v>
       </c>
     </row>
     <row r="14">
@@ -18071,28 +18071,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>242.4526090772279</v>
+        <v>347.8913252779737</v>
       </c>
       <c r="AB14" t="n">
-        <v>331.7343559935167</v>
+        <v>476.0002591273967</v>
       </c>
       <c r="AC14" t="n">
-        <v>300.0740946496871</v>
+        <v>430.5714624668367</v>
       </c>
       <c r="AD14" t="n">
-        <v>242452.6090772279</v>
+        <v>347891.3252779737</v>
       </c>
       <c r="AE14" t="n">
-        <v>331734.3559935167</v>
+        <v>476000.2591273967</v>
       </c>
       <c r="AF14" t="n">
         <v>8.892047044617065e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>21</v>
+        <v>20.98958333333334</v>
       </c>
       <c r="AH14" t="n">
-        <v>300074.0946496871</v>
+        <v>430571.4624668367</v>
       </c>
     </row>
   </sheetData>
@@ -18368,28 +18368,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>360.5004088781545</v>
+        <v>505.2325999608228</v>
       </c>
       <c r="AB2" t="n">
-        <v>493.2525635826727</v>
+        <v>691.2815325556098</v>
       </c>
       <c r="AC2" t="n">
-        <v>446.1772311986625</v>
+        <v>625.3065933082262</v>
       </c>
       <c r="AD2" t="n">
-        <v>360500.4088781545</v>
+        <v>505232.5999608228</v>
       </c>
       <c r="AE2" t="n">
-        <v>493252.5635826727</v>
+        <v>691281.5325556098</v>
       </c>
       <c r="AF2" t="n">
         <v>6.096072605461818e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>29</v>
+        <v>28.90625</v>
       </c>
       <c r="AH2" t="n">
-        <v>446177.2311986625</v>
+        <v>625306.5933082262</v>
       </c>
     </row>
     <row r="3">
@@ -18474,28 +18474,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>302.9346683664821</v>
+        <v>428.2631933558054</v>
       </c>
       <c r="AB3" t="n">
-        <v>414.4885777933687</v>
+        <v>585.9685947880586</v>
       </c>
       <c r="AC3" t="n">
-        <v>374.9303696671413</v>
+        <v>530.0445745135736</v>
       </c>
       <c r="AD3" t="n">
-        <v>302934.6683664821</v>
+        <v>428263.1933558054</v>
       </c>
       <c r="AE3" t="n">
-        <v>414488.5777933687</v>
+        <v>585968.5947880585</v>
       </c>
       <c r="AF3" t="n">
         <v>7.199477653085629e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>25</v>
+        <v>24.47916666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>374930.3696671413</v>
+        <v>530044.5745135735</v>
       </c>
     </row>
     <row r="4">
@@ -18580,28 +18580,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>288.2233727952808</v>
+        <v>403.9349727699549</v>
       </c>
       <c r="AB4" t="n">
-        <v>394.3599341762957</v>
+        <v>552.6816500971544</v>
       </c>
       <c r="AC4" t="n">
-        <v>356.7227755461531</v>
+        <v>499.934489105449</v>
       </c>
       <c r="AD4" t="n">
-        <v>288223.3727952808</v>
+        <v>403934.9727699549</v>
       </c>
       <c r="AE4" t="n">
-        <v>394359.9341762957</v>
+        <v>552681.6500971544</v>
       </c>
       <c r="AF4" t="n">
         <v>7.576213789453813e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>24</v>
+        <v>23.25520833333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>356722.7755461531</v>
+        <v>499934.489105449</v>
       </c>
     </row>
     <row r="5">
@@ -18686,28 +18686,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>275.7201513556336</v>
+        <v>391.4990711380121</v>
       </c>
       <c r="AB5" t="n">
-        <v>377.2524749993707</v>
+        <v>535.6663008510709</v>
       </c>
       <c r="AC5" t="n">
-        <v>341.248028262604</v>
+        <v>484.5430609102191</v>
       </c>
       <c r="AD5" t="n">
-        <v>275720.1513556336</v>
+        <v>391499.0711380121</v>
       </c>
       <c r="AE5" t="n">
-        <v>377252.4749993708</v>
+        <v>535666.3008510709</v>
       </c>
       <c r="AF5" t="n">
         <v>7.79883059730774e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>23</v>
+        <v>22.60416666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>341248.028262604</v>
+        <v>484543.0609102191</v>
       </c>
     </row>
     <row r="6">
@@ -18792,28 +18792,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>273.8924483126011</v>
+        <v>379.9871232726261</v>
       </c>
       <c r="AB6" t="n">
-        <v>374.7517310633262</v>
+        <v>519.9151459103537</v>
       </c>
       <c r="AC6" t="n">
-        <v>338.9859518179995</v>
+        <v>470.295174090159</v>
       </c>
       <c r="AD6" t="n">
-        <v>273892.4483126011</v>
+        <v>379987.1232726261</v>
       </c>
       <c r="AE6" t="n">
-        <v>374751.7310633262</v>
+        <v>519915.1459103537</v>
       </c>
       <c r="AF6" t="n">
         <v>7.942187970075943e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>23</v>
+        <v>22.1875</v>
       </c>
       <c r="AH6" t="n">
-        <v>338985.9518179995</v>
+        <v>470295.174090159</v>
       </c>
     </row>
     <row r="7">
@@ -18898,28 +18898,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>262.8543167294912</v>
+        <v>378.599071093089</v>
       </c>
       <c r="AB7" t="n">
-        <v>359.6488724633183</v>
+        <v>518.0159516817706</v>
       </c>
       <c r="AC7" t="n">
-        <v>325.3244888457812</v>
+        <v>468.5772362932162</v>
       </c>
       <c r="AD7" t="n">
-        <v>262854.3167294912</v>
+        <v>378599.071093089</v>
       </c>
       <c r="AE7" t="n">
-        <v>359648.8724633183</v>
+        <v>518015.9516817706</v>
       </c>
       <c r="AF7" t="n">
         <v>8.036541217308649e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>22</v>
+        <v>21.92708333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>325324.4888457812</v>
+        <v>468577.2362932162</v>
       </c>
     </row>
     <row r="8">
@@ -19004,28 +19004,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>262.0920178438023</v>
+        <v>377.8367722074001</v>
       </c>
       <c r="AB8" t="n">
-        <v>358.6058614976654</v>
+        <v>516.9729407161177</v>
       </c>
       <c r="AC8" t="n">
-        <v>324.3810213828151</v>
+        <v>467.6337688302501</v>
       </c>
       <c r="AD8" t="n">
-        <v>262092.0178438023</v>
+        <v>377836.7722074001</v>
       </c>
       <c r="AE8" t="n">
-        <v>358605.8614976654</v>
+        <v>516972.9407161177</v>
       </c>
       <c r="AF8" t="n">
         <v>8.088523494119782e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>22</v>
+        <v>21.796875</v>
       </c>
       <c r="AH8" t="n">
-        <v>324381.0213828151</v>
+        <v>467633.7688302501</v>
       </c>
     </row>
     <row r="9">
@@ -19110,28 +19110,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>261.5252630333634</v>
+        <v>367.6872578010928</v>
       </c>
       <c r="AB9" t="n">
-        <v>357.8304025625654</v>
+        <v>503.0859273404343</v>
       </c>
       <c r="AC9" t="n">
-        <v>323.6795711601176</v>
+        <v>455.0721125205962</v>
       </c>
       <c r="AD9" t="n">
-        <v>261525.2630333634</v>
+        <v>367687.2578010928</v>
       </c>
       <c r="AE9" t="n">
-        <v>357830.4025625654</v>
+        <v>503085.9273404343</v>
       </c>
       <c r="AF9" t="n">
         <v>8.12385519788985e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>22</v>
+        <v>21.69270833333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>323679.5711601176</v>
+        <v>455072.1125205962</v>
       </c>
     </row>
     <row r="10">
@@ -19216,28 +19216,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>260.9750347982529</v>
+        <v>367.1370295659823</v>
       </c>
       <c r="AB10" t="n">
-        <v>357.0775560169307</v>
+        <v>502.3330807947996</v>
       </c>
       <c r="AC10" t="n">
-        <v>322.9985752321714</v>
+        <v>454.3911165926501</v>
       </c>
       <c r="AD10" t="n">
-        <v>260975.0347982529</v>
+        <v>367137.0295659823</v>
       </c>
       <c r="AE10" t="n">
-        <v>357077.5560169307</v>
+        <v>502333.0807947995</v>
       </c>
       <c r="AF10" t="n">
         <v>8.127374831215603e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>22</v>
+        <v>21.69270833333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>322998.5752321715</v>
+        <v>454391.1165926501</v>
       </c>
     </row>
     <row r="11">
@@ -19322,28 +19322,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>260.2718274807111</v>
+        <v>366.4338222484405</v>
       </c>
       <c r="AB11" t="n">
-        <v>356.1153967417526</v>
+        <v>501.3709215196215</v>
       </c>
       <c r="AC11" t="n">
-        <v>322.1282430878174</v>
+        <v>453.520784448296</v>
       </c>
       <c r="AD11" t="n">
-        <v>260271.8274807111</v>
+        <v>366433.8222484405</v>
       </c>
       <c r="AE11" t="n">
-        <v>356115.3967417526</v>
+        <v>501370.9215196215</v>
       </c>
       <c r="AF11" t="n">
         <v>8.183621279171398e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>22</v>
+        <v>21.53645833333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>322128.2430878174</v>
+        <v>453520.784448296</v>
       </c>
     </row>
     <row r="12">
@@ -19428,28 +19428,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>259.7549626150496</v>
+        <v>365.916957382779</v>
       </c>
       <c r="AB12" t="n">
-        <v>355.408199430086</v>
+        <v>500.6637242079549</v>
       </c>
       <c r="AC12" t="n">
-        <v>321.4885396950186</v>
+        <v>452.8810810554972</v>
       </c>
       <c r="AD12" t="n">
-        <v>259754.9626150496</v>
+        <v>365916.957382779</v>
       </c>
       <c r="AE12" t="n">
-        <v>355408.199430086</v>
+        <v>500663.7242079549</v>
       </c>
       <c r="AF12" t="n">
         <v>8.17868025546409e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>22</v>
+        <v>21.5625</v>
       </c>
       <c r="AH12" t="n">
-        <v>321488.5396950186</v>
+        <v>452881.0810554972</v>
       </c>
     </row>
     <row r="13">
@@ -19534,28 +19534,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>259.1351978558429</v>
+        <v>365.1957073970871</v>
       </c>
       <c r="AB13" t="n">
-        <v>354.560209944448</v>
+        <v>499.6768781582276</v>
       </c>
       <c r="AC13" t="n">
-        <v>320.7214811357291</v>
+        <v>451.9884182077087</v>
       </c>
       <c r="AD13" t="n">
-        <v>259135.1978558429</v>
+        <v>365195.7073970871</v>
       </c>
       <c r="AE13" t="n">
-        <v>354560.209944448</v>
+        <v>499676.8781582276</v>
       </c>
       <c r="AF13" t="n">
         <v>8.232557719450629e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>22</v>
+        <v>21.40625</v>
       </c>
       <c r="AH13" t="n">
-        <v>320721.4811357291</v>
+        <v>451988.4182077087</v>
       </c>
     </row>
     <row r="14">
@@ -19640,28 +19640,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>258.5760416611578</v>
+        <v>364.636551202402</v>
       </c>
       <c r="AB14" t="n">
-        <v>353.7951477706494</v>
+        <v>498.911815984429</v>
       </c>
       <c r="AC14" t="n">
-        <v>320.0294354220264</v>
+        <v>451.296372494006</v>
       </c>
       <c r="AD14" t="n">
-        <v>258576.0416611578</v>
+        <v>364636.551202402</v>
       </c>
       <c r="AE14" t="n">
-        <v>353795.1477706494</v>
+        <v>498911.815984429</v>
       </c>
       <c r="AF14" t="n">
         <v>8.240883005971162e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>22</v>
+        <v>21.38020833333333</v>
       </c>
       <c r="AH14" t="n">
-        <v>320029.4354220264</v>
+        <v>451296.372494006</v>
       </c>
     </row>
     <row r="15">
@@ -19746,28 +19746,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>257.9375852642042</v>
+        <v>363.9980948054517</v>
       </c>
       <c r="AB15" t="n">
-        <v>352.9215835614623</v>
+        <v>498.0382517754133</v>
       </c>
       <c r="AC15" t="n">
-        <v>319.2392429550153</v>
+        <v>450.5061800270437</v>
       </c>
       <c r="AD15" t="n">
-        <v>257937.5852642042</v>
+        <v>363998.0948054517</v>
       </c>
       <c r="AE15" t="n">
-        <v>352921.5835614624</v>
+        <v>498038.2517754133</v>
       </c>
       <c r="AF15" t="n">
         <v>8.231407070094134e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>22</v>
+        <v>21.40625</v>
       </c>
       <c r="AH15" t="n">
-        <v>319239.2429550153</v>
+        <v>450506.1800270437</v>
       </c>
     </row>
     <row r="16">
@@ -19852,28 +19852,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>257.522748448874</v>
+        <v>363.5832579901214</v>
       </c>
       <c r="AB16" t="n">
-        <v>352.3539855294192</v>
+        <v>497.4706537433698</v>
       </c>
       <c r="AC16" t="n">
-        <v>318.7258156825213</v>
+        <v>449.9927527545495</v>
       </c>
       <c r="AD16" t="n">
-        <v>257522.748448874</v>
+        <v>363583.2579901214</v>
       </c>
       <c r="AE16" t="n">
-        <v>352353.9855294192</v>
+        <v>497470.6537433699</v>
       </c>
       <c r="AF16" t="n">
         <v>8.28149415972986e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>22</v>
+        <v>21.27604166666667</v>
       </c>
       <c r="AH16" t="n">
-        <v>318725.8156825213</v>
+        <v>449992.7527545496</v>
       </c>
     </row>
     <row r="17">
@@ -19958,28 +19958,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>257.4775346095731</v>
+        <v>363.5380441508204</v>
       </c>
       <c r="AB17" t="n">
-        <v>352.2921219597939</v>
+        <v>497.4087901737445</v>
       </c>
       <c r="AC17" t="n">
-        <v>318.6698562851549</v>
+        <v>449.9367933571832</v>
       </c>
       <c r="AD17" t="n">
-        <v>257477.5346095731</v>
+        <v>363538.0441508205</v>
       </c>
       <c r="AE17" t="n">
-        <v>352292.1219597938</v>
+        <v>497408.7901737445</v>
       </c>
       <c r="AF17" t="n">
         <v>8.280952677679744e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>22</v>
+        <v>21.27604166666667</v>
       </c>
       <c r="AH17" t="n">
-        <v>318669.8562851549</v>
+        <v>449936.7933571832</v>
       </c>
     </row>
   </sheetData>
@@ -20255,28 +20255,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>425.8108607430152</v>
+        <v>581.9489005636499</v>
       </c>
       <c r="AB2" t="n">
-        <v>582.6132051179598</v>
+        <v>796.2481595247152</v>
       </c>
       <c r="AC2" t="n">
-        <v>527.0094185242699</v>
+        <v>720.2553527209865</v>
       </c>
       <c r="AD2" t="n">
-        <v>425810.8607430151</v>
+        <v>581948.9005636498</v>
       </c>
       <c r="AE2" t="n">
-        <v>582613.2051179598</v>
+        <v>796248.1595247153</v>
       </c>
       <c r="AF2" t="n">
         <v>4.989550064565387e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>33</v>
+        <v>32.109375</v>
       </c>
       <c r="AH2" t="n">
-        <v>527009.4185242699</v>
+        <v>720255.3527209865</v>
       </c>
     </row>
     <row r="3">
@@ -20361,28 +20361,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>339.2673849940705</v>
+        <v>466.1169198843916</v>
       </c>
       <c r="AB3" t="n">
-        <v>464.2006035695666</v>
+        <v>637.7617334130227</v>
       </c>
       <c r="AC3" t="n">
-        <v>419.8979494745254</v>
+        <v>576.8946486802978</v>
       </c>
       <c r="AD3" t="n">
-        <v>339267.3849940705</v>
+        <v>466116.9198843915</v>
       </c>
       <c r="AE3" t="n">
-        <v>464200.6035695666</v>
+        <v>637761.7334130227</v>
       </c>
       <c r="AF3" t="n">
         <v>6.102618686229521e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>27</v>
+        <v>26.25</v>
       </c>
       <c r="AH3" t="n">
-        <v>419897.9494745254</v>
+        <v>576894.6486802978</v>
       </c>
     </row>
     <row r="4">
@@ -20467,28 +20467,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>311.368207108839</v>
+        <v>428.454907022389</v>
       </c>
       <c r="AB4" t="n">
-        <v>426.027717562132</v>
+        <v>586.2309058844883</v>
       </c>
       <c r="AC4" t="n">
-        <v>385.3682301316583</v>
+        <v>530.281851007116</v>
       </c>
       <c r="AD4" t="n">
-        <v>311368.2071088391</v>
+        <v>428454.9070223889</v>
       </c>
       <c r="AE4" t="n">
-        <v>426027.717562132</v>
+        <v>586230.9058844883</v>
       </c>
       <c r="AF4" t="n">
         <v>6.567227926814699e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>25</v>
+        <v>24.40104166666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>385368.2301316583</v>
+        <v>530281.8510071159</v>
       </c>
     </row>
     <row r="5">
@@ -20573,28 +20573,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>298.0724062635657</v>
+        <v>415.22642598482</v>
       </c>
       <c r="AB5" t="n">
-        <v>407.8358162762937</v>
+        <v>568.1311145294915</v>
       </c>
       <c r="AC5" t="n">
-        <v>368.9125383720466</v>
+        <v>513.9094783358233</v>
       </c>
       <c r="AD5" t="n">
-        <v>298072.4062635657</v>
+        <v>415226.42598482</v>
       </c>
       <c r="AE5" t="n">
-        <v>407835.8162762937</v>
+        <v>568131.1145294915</v>
       </c>
       <c r="AF5" t="n">
         <v>6.782581170364974e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>24</v>
+        <v>23.61979166666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>368912.5383720466</v>
+        <v>513909.4783358233</v>
       </c>
     </row>
     <row r="6">
@@ -20679,28 +20679,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>296.1654852155212</v>
+        <v>413.2180197102903</v>
       </c>
       <c r="AB6" t="n">
-        <v>405.2266827709399</v>
+        <v>565.3831244600485</v>
       </c>
       <c r="AC6" t="n">
-        <v>366.552416906502</v>
+        <v>511.4237525817796</v>
       </c>
       <c r="AD6" t="n">
-        <v>296165.4852155212</v>
+        <v>413218.0197102902</v>
       </c>
       <c r="AE6" t="n">
-        <v>405226.6827709399</v>
+        <v>565383.1244600485</v>
       </c>
       <c r="AF6" t="n">
         <v>6.91019334954305e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>24</v>
+        <v>23.17708333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>366552.416906502</v>
+        <v>511423.7525817796</v>
       </c>
     </row>
     <row r="7">
@@ -20785,28 +20785,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>284.899474232607</v>
+        <v>402.0193285350805</v>
       </c>
       <c r="AB7" t="n">
-        <v>389.8120295227903</v>
+        <v>550.0605811427403</v>
       </c>
       <c r="AC7" t="n">
-        <v>352.608916529754</v>
+        <v>497.5635712933507</v>
       </c>
       <c r="AD7" t="n">
-        <v>284899.474232607</v>
+        <v>402019.3285350805</v>
       </c>
       <c r="AE7" t="n">
-        <v>389812.0295227903</v>
+        <v>550060.5811427402</v>
       </c>
       <c r="AF7" t="n">
         <v>6.999288062874707e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>23</v>
+        <v>22.890625</v>
       </c>
       <c r="AH7" t="n">
-        <v>352608.9165297539</v>
+        <v>497563.5712933507</v>
       </c>
     </row>
     <row r="8">
@@ -20891,28 +20891,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>283.3945511689604</v>
+        <v>400.5144054714339</v>
       </c>
       <c r="AB8" t="n">
-        <v>387.7529273945892</v>
+        <v>548.0014790145392</v>
       </c>
       <c r="AC8" t="n">
-        <v>350.7463322187004</v>
+        <v>495.7009869822971</v>
       </c>
       <c r="AD8" t="n">
-        <v>283394.5511689604</v>
+        <v>400514.4054714339</v>
       </c>
       <c r="AE8" t="n">
-        <v>387752.9273945892</v>
+        <v>548001.4790145392</v>
       </c>
       <c r="AF8" t="n">
         <v>7.093858901542355e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>23</v>
+        <v>22.578125</v>
       </c>
       <c r="AH8" t="n">
-        <v>350746.3322187004</v>
+        <v>495700.9869822972</v>
       </c>
     </row>
     <row r="9">
@@ -20997,28 +20997,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>282.6000610284913</v>
+        <v>399.6184301044796</v>
       </c>
       <c r="AB9" t="n">
-        <v>386.6658709339681</v>
+        <v>546.7755659898287</v>
       </c>
       <c r="AC9" t="n">
-        <v>349.7630229009877</v>
+        <v>494.5920733760853</v>
       </c>
       <c r="AD9" t="n">
-        <v>282600.0610284913</v>
+        <v>399618.4301044795</v>
       </c>
       <c r="AE9" t="n">
-        <v>386665.8709339681</v>
+        <v>546775.5659898287</v>
       </c>
       <c r="AF9" t="n">
         <v>7.141236615123416e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>23</v>
+        <v>22.44791666666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>349763.0229009876</v>
+        <v>494592.0733760853</v>
       </c>
     </row>
     <row r="10">
@@ -21103,28 +21103,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>282.4589595368742</v>
+        <v>399.4773286128624</v>
       </c>
       <c r="AB10" t="n">
-        <v>386.4728096481791</v>
+        <v>546.5825047040398</v>
       </c>
       <c r="AC10" t="n">
-        <v>349.5883871133511</v>
+        <v>494.4174375884488</v>
       </c>
       <c r="AD10" t="n">
-        <v>282458.9595368742</v>
+        <v>399477.3286128624</v>
       </c>
       <c r="AE10" t="n">
-        <v>386472.8096481791</v>
+        <v>546582.5047040398</v>
       </c>
       <c r="AF10" t="n">
         <v>7.13385307534455e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>23</v>
+        <v>22.44791666666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>349588.3871133511</v>
+        <v>494417.4375884488</v>
       </c>
     </row>
     <row r="11">
@@ -21209,28 +21209,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>281.6757228494849</v>
+        <v>388.9995877862635</v>
       </c>
       <c r="AB11" t="n">
-        <v>385.4011506585291</v>
+        <v>532.2463974597856</v>
       </c>
       <c r="AC11" t="n">
-        <v>348.6190057535905</v>
+        <v>481.4495482987333</v>
       </c>
       <c r="AD11" t="n">
-        <v>281675.7228494849</v>
+        <v>388999.5877862636</v>
       </c>
       <c r="AE11" t="n">
-        <v>385401.1506585291</v>
+        <v>532246.3974597856</v>
       </c>
       <c r="AF11" t="n">
         <v>7.186829973257917e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>23</v>
+        <v>22.29166666666667</v>
       </c>
       <c r="AH11" t="n">
-        <v>348619.0057535905</v>
+        <v>481449.5482987333</v>
       </c>
     </row>
     <row r="12">
@@ -21315,28 +21315,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>280.6325719879088</v>
+        <v>387.9564369246875</v>
       </c>
       <c r="AB12" t="n">
-        <v>383.9738656291526</v>
+        <v>530.8191124304091</v>
       </c>
       <c r="AC12" t="n">
-        <v>347.3279388042106</v>
+        <v>480.1584813493535</v>
       </c>
       <c r="AD12" t="n">
-        <v>280632.5719879088</v>
+        <v>387956.4369246875</v>
       </c>
       <c r="AE12" t="n">
-        <v>383973.8656291526</v>
+        <v>530819.1124304091</v>
       </c>
       <c r="AF12" t="n">
         <v>7.239499223680499e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>23</v>
+        <v>22.13541666666667</v>
       </c>
       <c r="AH12" t="n">
-        <v>347327.9388042106</v>
+        <v>480158.4813493534</v>
       </c>
     </row>
     <row r="13">
@@ -21421,28 +21421,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>280.7192679674558</v>
+        <v>388.0431329042345</v>
       </c>
       <c r="AB13" t="n">
-        <v>384.0924868931255</v>
+        <v>530.937733694382</v>
       </c>
       <c r="AC13" t="n">
-        <v>347.4352390212358</v>
+        <v>480.2657815663788</v>
       </c>
       <c r="AD13" t="n">
-        <v>280719.2679674558</v>
+        <v>388043.1329042345</v>
       </c>
       <c r="AE13" t="n">
-        <v>384092.4868931255</v>
+        <v>530937.733694382</v>
       </c>
       <c r="AF13" t="n">
         <v>7.23260791988689e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>23</v>
+        <v>22.16145833333333</v>
       </c>
       <c r="AH13" t="n">
-        <v>347435.2390212358</v>
+        <v>480265.7815663788</v>
       </c>
     </row>
     <row r="14">
@@ -21527,28 +21527,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>280.1730011373838</v>
+        <v>387.4968660741625</v>
       </c>
       <c r="AB14" t="n">
-        <v>383.3450605166293</v>
+        <v>530.1903073178858</v>
       </c>
       <c r="AC14" t="n">
-        <v>346.759145969093</v>
+        <v>479.5896885142359</v>
       </c>
       <c r="AD14" t="n">
-        <v>280173.0011373838</v>
+        <v>387496.8660741625</v>
       </c>
       <c r="AE14" t="n">
-        <v>383345.0605166293</v>
+        <v>530190.3073178858</v>
       </c>
       <c r="AF14" t="n">
         <v>7.233346273864777e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>23</v>
+        <v>22.16145833333333</v>
       </c>
       <c r="AH14" t="n">
-        <v>346759.145969093</v>
+        <v>479589.6885142359</v>
       </c>
     </row>
     <row r="15">
@@ -21633,28 +21633,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>279.5866005555333</v>
+        <v>386.910465492312</v>
       </c>
       <c r="AB15" t="n">
-        <v>382.5427213703736</v>
+        <v>529.3879681716302</v>
       </c>
       <c r="AC15" t="n">
-        <v>346.0333809448659</v>
+        <v>478.8639234900088</v>
       </c>
       <c r="AD15" t="n">
-        <v>279586.6005555333</v>
+        <v>386910.465492312</v>
       </c>
       <c r="AE15" t="n">
-        <v>382542.7213703736</v>
+        <v>529387.9681716302</v>
       </c>
       <c r="AF15" t="n">
         <v>7.283062108375812e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>23</v>
+        <v>22.00520833333333</v>
       </c>
       <c r="AH15" t="n">
-        <v>346033.3809448659</v>
+        <v>478863.9234900088</v>
       </c>
     </row>
     <row r="16">
@@ -21739,28 +21739,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>269.4381835418011</v>
+        <v>386.5238724254938</v>
       </c>
       <c r="AB16" t="n">
-        <v>368.6572094956248</v>
+        <v>528.8590144823269</v>
       </c>
       <c r="AC16" t="n">
-        <v>333.4730828350048</v>
+        <v>478.3854523984216</v>
       </c>
       <c r="AD16" t="n">
-        <v>269438.1835418011</v>
+        <v>386523.8724254938</v>
       </c>
       <c r="AE16" t="n">
-        <v>368657.2094956248</v>
+        <v>528859.0144823269</v>
       </c>
       <c r="AF16" t="n">
         <v>7.287615291239445e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>22</v>
+        <v>21.97916666666667</v>
       </c>
       <c r="AH16" t="n">
-        <v>333473.0828350048</v>
+        <v>478385.4523984216</v>
       </c>
     </row>
     <row r="17">
@@ -21845,28 +21845,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>268.9343474539115</v>
+        <v>386.0200363376042</v>
       </c>
       <c r="AB17" t="n">
-        <v>367.9678387324947</v>
+        <v>528.1696437191969</v>
       </c>
       <c r="AC17" t="n">
-        <v>332.84950464997</v>
+        <v>477.7618742133868</v>
       </c>
       <c r="AD17" t="n">
-        <v>268934.3474539115</v>
+        <v>386020.0363376042</v>
       </c>
       <c r="AE17" t="n">
-        <v>367967.8387324947</v>
+        <v>528169.6437191969</v>
       </c>
       <c r="AF17" t="n">
         <v>7.288045997726546e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>22</v>
+        <v>21.97916666666667</v>
       </c>
       <c r="AH17" t="n">
-        <v>332849.50464997</v>
+        <v>477761.8742133867</v>
       </c>
     </row>
     <row r="18">
@@ -21951,28 +21951,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>267.9978372375931</v>
+        <v>385.0835261212857</v>
       </c>
       <c r="AB18" t="n">
-        <v>366.6864641386131</v>
+        <v>526.8882691253153</v>
       </c>
       <c r="AC18" t="n">
-        <v>331.6904226489079</v>
+        <v>476.6027922123246</v>
       </c>
       <c r="AD18" t="n">
-        <v>267997.8372375931</v>
+        <v>385083.5261212857</v>
       </c>
       <c r="AE18" t="n">
-        <v>366686.4641386131</v>
+        <v>526888.2691253154</v>
       </c>
       <c r="AF18" t="n">
         <v>7.337577243743109e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>22</v>
+        <v>21.84895833333333</v>
       </c>
       <c r="AH18" t="n">
-        <v>331690.4226489079</v>
+        <v>476602.7922123246</v>
       </c>
     </row>
     <row r="19">
@@ -22057,28 +22057,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>268.1808342187455</v>
+        <v>385.2665231024382</v>
       </c>
       <c r="AB19" t="n">
-        <v>366.9368486814828</v>
+        <v>527.138653668185</v>
       </c>
       <c r="AC19" t="n">
-        <v>331.916910842423</v>
+        <v>476.8292804058398</v>
       </c>
       <c r="AD19" t="n">
-        <v>268180.8342187455</v>
+        <v>385266.5231024381</v>
       </c>
       <c r="AE19" t="n">
-        <v>366936.8486814828</v>
+        <v>527138.653668185</v>
       </c>
       <c r="AF19" t="n">
         <v>7.330747469447658e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>22</v>
+        <v>21.84895833333333</v>
       </c>
       <c r="AH19" t="n">
-        <v>331916.910842423</v>
+        <v>476829.2804058398</v>
       </c>
     </row>
     <row r="20">
@@ -22163,28 +22163,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>267.8667083246718</v>
+        <v>384.9523972083645</v>
       </c>
       <c r="AB20" t="n">
-        <v>366.5070477749547</v>
+        <v>526.708852761657</v>
       </c>
       <c r="AC20" t="n">
-        <v>331.5281295311847</v>
+        <v>476.4404990946015</v>
       </c>
       <c r="AD20" t="n">
-        <v>267866.7083246718</v>
+        <v>384952.3972083644</v>
       </c>
       <c r="AE20" t="n">
-        <v>366507.0477749548</v>
+        <v>526708.852761657</v>
       </c>
       <c r="AF20" t="n">
         <v>7.338069479728367e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>22</v>
+        <v>21.82291666666667</v>
       </c>
       <c r="AH20" t="n">
-        <v>331528.1295311847</v>
+        <v>476440.4990946015</v>
       </c>
     </row>
     <row r="21">
@@ -22269,28 +22269,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>267.5971429164686</v>
+        <v>384.6828318001612</v>
       </c>
       <c r="AB21" t="n">
-        <v>366.1382164910646</v>
+        <v>526.3400214777669</v>
       </c>
       <c r="AC21" t="n">
-        <v>331.194498987371</v>
+        <v>476.1068685507878</v>
       </c>
       <c r="AD21" t="n">
-        <v>267597.1429164686</v>
+        <v>384682.8318001612</v>
       </c>
       <c r="AE21" t="n">
-        <v>366138.2164910646</v>
+        <v>526340.0214777669</v>
       </c>
       <c r="AF21" t="n">
         <v>7.336100535787336e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>22</v>
+        <v>21.84895833333333</v>
       </c>
       <c r="AH21" t="n">
-        <v>331194.498987371</v>
+        <v>476106.8685507878</v>
       </c>
     </row>
     <row r="22">
@@ -22375,28 +22375,28 @@
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>267.0314223643234</v>
+        <v>384.117111248016</v>
       </c>
       <c r="AB22" t="n">
-        <v>365.3641726737903</v>
+        <v>525.5659776604925</v>
       </c>
       <c r="AC22" t="n">
-        <v>330.49432882564</v>
+        <v>475.4066983890568</v>
       </c>
       <c r="AD22" t="n">
-        <v>267031.4223643234</v>
+        <v>384117.1112480161</v>
       </c>
       <c r="AE22" t="n">
-        <v>365364.1726737903</v>
+        <v>525565.9776604925</v>
       </c>
       <c r="AF22" t="n">
         <v>7.344345488540404e-06</v>
       </c>
       <c r="AG22" t="n">
-        <v>22</v>
+        <v>21.82291666666667</v>
       </c>
       <c r="AH22" t="n">
-        <v>330494.32882564</v>
+        <v>475406.6983890568</v>
       </c>
     </row>
     <row r="23">
@@ -22481,28 +22481,28 @@
         <v>10</v>
       </c>
       <c r="AA23" t="n">
-        <v>266.444268006132</v>
+        <v>383.5299568898246</v>
       </c>
       <c r="AB23" t="n">
-        <v>364.5608021774907</v>
+        <v>524.7626071641929</v>
       </c>
       <c r="AC23" t="n">
-        <v>329.7676308819697</v>
+        <v>474.6800004453864</v>
       </c>
       <c r="AD23" t="n">
-        <v>266444.268006132</v>
+        <v>383529.9568898246</v>
       </c>
       <c r="AE23" t="n">
-        <v>364560.8021774907</v>
+        <v>524762.6071641929</v>
       </c>
       <c r="AF23" t="n">
         <v>7.345576078503548e-06</v>
       </c>
       <c r="AG23" t="n">
-        <v>22</v>
+        <v>21.82291666666667</v>
       </c>
       <c r="AH23" t="n">
-        <v>329767.6308819697</v>
+        <v>474680.0004453865</v>
       </c>
     </row>
     <row r="24">
@@ -22587,28 +22587,28 @@
         <v>10</v>
       </c>
       <c r="AA24" t="n">
-        <v>265.8363929836267</v>
+        <v>382.9220818673194</v>
       </c>
       <c r="AB24" t="n">
-        <v>363.7290807541457</v>
+        <v>523.9308857408479</v>
       </c>
       <c r="AC24" t="n">
-        <v>329.0152877839404</v>
+        <v>473.9276573473572</v>
       </c>
       <c r="AD24" t="n">
-        <v>265836.3929836267</v>
+        <v>382922.0818673194</v>
       </c>
       <c r="AE24" t="n">
-        <v>363729.0807541457</v>
+        <v>523930.8857408479</v>
       </c>
       <c r="AF24" t="n">
         <v>7.345822196496177e-06</v>
       </c>
       <c r="AG24" t="n">
-        <v>22</v>
+        <v>21.82291666666667</v>
       </c>
       <c r="AH24" t="n">
-        <v>329015.2877839404</v>
+        <v>473927.6573473572</v>
       </c>
     </row>
     <row r="25">
@@ -22693,28 +22693,28 @@
         <v>10</v>
       </c>
       <c r="AA25" t="n">
-        <v>265.1287726513369</v>
+        <v>372.51995739582</v>
       </c>
       <c r="AB25" t="n">
-        <v>362.7608833975009</v>
+        <v>509.6982401295989</v>
       </c>
       <c r="AC25" t="n">
-        <v>328.1394938241403</v>
+        <v>461.0533554576023</v>
       </c>
       <c r="AD25" t="n">
-        <v>265128.7726513369</v>
+        <v>372519.9573958199</v>
       </c>
       <c r="AE25" t="n">
-        <v>362760.883397501</v>
+        <v>509698.2401295989</v>
       </c>
       <c r="AF25" t="n">
         <v>7.399352859892959e-06</v>
       </c>
       <c r="AG25" t="n">
-        <v>22</v>
+        <v>21.66666666666667</v>
       </c>
       <c r="AH25" t="n">
-        <v>328139.4938241403</v>
+        <v>461053.3554576022</v>
       </c>
     </row>
   </sheetData>
@@ -22990,28 +22990,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>317.6659447174301</v>
+        <v>441.3552707694045</v>
       </c>
       <c r="AB2" t="n">
-        <v>434.6445599947808</v>
+        <v>603.8817526870367</v>
       </c>
       <c r="AC2" t="n">
-        <v>393.1626932163494</v>
+        <v>546.2481257639482</v>
       </c>
       <c r="AD2" t="n">
-        <v>317665.9447174301</v>
+        <v>441355.2707694045</v>
       </c>
       <c r="AE2" t="n">
-        <v>434644.5599947807</v>
+        <v>603881.7526870368</v>
       </c>
       <c r="AF2" t="n">
         <v>7.677158483425024e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>27</v>
+        <v>26.015625</v>
       </c>
       <c r="AH2" t="n">
-        <v>393162.6932163494</v>
+        <v>546248.1257639482</v>
       </c>
     </row>
     <row r="3">
@@ -23096,28 +23096,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>277.9953598637139</v>
+        <v>382.679367356057</v>
       </c>
       <c r="AB3" t="n">
-        <v>380.3655156552414</v>
+        <v>523.5987930387302</v>
       </c>
       <c r="AC3" t="n">
-        <v>344.0639646874585</v>
+        <v>473.6272591066345</v>
       </c>
       <c r="AD3" t="n">
-        <v>277995.3598637139</v>
+        <v>382679.367356057</v>
       </c>
       <c r="AE3" t="n">
-        <v>380365.5156552414</v>
+        <v>523598.7930387302</v>
       </c>
       <c r="AF3" t="n">
         <v>8.659680744422478e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>24</v>
+        <v>23.07291666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>344063.9646874585</v>
+        <v>473627.2591066345</v>
       </c>
     </row>
     <row r="4">
@@ -23202,28 +23202,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>264.592331236923</v>
+        <v>369.2421733104853</v>
       </c>
       <c r="AB4" t="n">
-        <v>362.026900588175</v>
+        <v>505.2134313384159</v>
       </c>
       <c r="AC4" t="n">
-        <v>327.4755613039849</v>
+        <v>456.996570522981</v>
       </c>
       <c r="AD4" t="n">
-        <v>264592.331236923</v>
+        <v>369242.1733104853</v>
       </c>
       <c r="AE4" t="n">
-        <v>362026.900588175</v>
+        <v>505213.4313384159</v>
       </c>
       <c r="AF4" t="n">
         <v>9.047581054662474e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>23</v>
+        <v>22.08333333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>327475.561303985</v>
+        <v>456996.570522981</v>
       </c>
     </row>
     <row r="5">
@@ -23308,28 +23308,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>253.1248393455288</v>
+        <v>357.8420012267986</v>
       </c>
       <c r="AB5" t="n">
-        <v>346.336572272169</v>
+        <v>489.6152129534193</v>
       </c>
       <c r="AC5" t="n">
-        <v>313.2826959010486</v>
+        <v>442.8870242084114</v>
       </c>
       <c r="AD5" t="n">
-        <v>253124.8393455288</v>
+        <v>357842.0012267986</v>
       </c>
       <c r="AE5" t="n">
-        <v>346336.5722721689</v>
+        <v>489615.2129534193</v>
       </c>
       <c r="AF5" t="n">
         <v>9.227455728878966e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>22</v>
+        <v>21.640625</v>
       </c>
       <c r="AH5" t="n">
-        <v>313282.6959010485</v>
+        <v>442887.0242084114</v>
       </c>
     </row>
     <row r="6">
@@ -23414,28 +23414,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>251.4646900351689</v>
+        <v>356.0803666899535</v>
       </c>
       <c r="AB6" t="n">
-        <v>344.0650827451171</v>
+        <v>487.204866862277</v>
       </c>
       <c r="AC6" t="n">
-        <v>311.2279941464023</v>
+        <v>440.7067181652657</v>
       </c>
       <c r="AD6" t="n">
-        <v>251464.6900351689</v>
+        <v>356080.3666899535</v>
       </c>
       <c r="AE6" t="n">
-        <v>344065.0827451171</v>
+        <v>487204.866862277</v>
       </c>
       <c r="AF6" t="n">
         <v>9.387770470504749e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>22</v>
+        <v>21.27604166666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>311227.9941464023</v>
+        <v>440706.7181652657</v>
       </c>
     </row>
     <row r="7">
@@ -23520,28 +23520,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>250.6485570439072</v>
+        <v>355.2642336986918</v>
       </c>
       <c r="AB7" t="n">
-        <v>342.9484135812269</v>
+        <v>486.0881976983864</v>
       </c>
       <c r="AC7" t="n">
-        <v>310.2178983202585</v>
+        <v>439.6966223391217</v>
       </c>
       <c r="AD7" t="n">
-        <v>250648.5570439072</v>
+        <v>355264.2336986918</v>
       </c>
       <c r="AE7" t="n">
-        <v>342948.413581227</v>
+        <v>486088.1976983863</v>
       </c>
       <c r="AF7" t="n">
         <v>9.444225805354788e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>22</v>
+        <v>21.14583333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>310217.8983202585</v>
+        <v>439696.6223391218</v>
       </c>
     </row>
     <row r="8">
@@ -23626,28 +23626,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>249.9246242842472</v>
+        <v>345.0888897873874</v>
       </c>
       <c r="AB8" t="n">
-        <v>341.9578968418014</v>
+        <v>472.1658432544483</v>
       </c>
       <c r="AC8" t="n">
-        <v>309.3219151082444</v>
+        <v>427.102997863166</v>
       </c>
       <c r="AD8" t="n">
-        <v>249924.6242842472</v>
+        <v>345088.8897873873</v>
       </c>
       <c r="AE8" t="n">
-        <v>341957.8968418014</v>
+        <v>472165.8432544483</v>
       </c>
       <c r="AF8" t="n">
         <v>9.482501908738168e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>22</v>
+        <v>21.06770833333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>309321.9151082444</v>
+        <v>427102.997863166</v>
       </c>
     </row>
     <row r="9">
@@ -23732,28 +23732,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>239.3552700964811</v>
+        <v>344.03826655897</v>
       </c>
       <c r="AB9" t="n">
-        <v>327.4964401551092</v>
+        <v>470.7283342031021</v>
       </c>
       <c r="AC9" t="n">
-        <v>296.2406395509436</v>
+        <v>425.8026826581237</v>
       </c>
       <c r="AD9" t="n">
-        <v>239355.2700964811</v>
+        <v>344038.26655897</v>
       </c>
       <c r="AE9" t="n">
-        <v>327496.4401551092</v>
+        <v>470728.3342031021</v>
       </c>
       <c r="AF9" t="n">
         <v>9.549082385164571e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>21</v>
+        <v>20.91145833333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>296240.6395509436</v>
+        <v>425802.6826581237</v>
       </c>
     </row>
     <row r="10">
@@ -23838,28 +23838,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>238.4866666326446</v>
+        <v>343.1696630951335</v>
       </c>
       <c r="AB10" t="n">
-        <v>326.3079785758084</v>
+        <v>469.5398726238007</v>
       </c>
       <c r="AC10" t="n">
-        <v>295.1656030767545</v>
+        <v>424.7276461839346</v>
       </c>
       <c r="AD10" t="n">
-        <v>238486.6666326446</v>
+        <v>343169.6630951335</v>
       </c>
       <c r="AE10" t="n">
-        <v>326307.9785758084</v>
+        <v>469539.8726238007</v>
       </c>
       <c r="AF10" t="n">
         <v>9.584520380681849e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>21</v>
+        <v>20.83333333333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>295165.6030767545</v>
+        <v>424727.6461839345</v>
       </c>
     </row>
     <row r="11">
@@ -23944,28 +23944,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>238.2746084795931</v>
+        <v>342.957604942082</v>
       </c>
       <c r="AB11" t="n">
-        <v>326.0178312554581</v>
+        <v>469.2497253034502</v>
       </c>
       <c r="AC11" t="n">
-        <v>294.903147009434</v>
+        <v>424.4651901166139</v>
       </c>
       <c r="AD11" t="n">
-        <v>238274.6084795931</v>
+        <v>342957.604942082</v>
       </c>
       <c r="AE11" t="n">
-        <v>326017.8312554581</v>
+        <v>469249.7253034502</v>
       </c>
       <c r="AF11" t="n">
         <v>9.586514726749922e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>21</v>
+        <v>20.83333333333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>294903.147009434</v>
+        <v>424465.1901166139</v>
       </c>
     </row>
     <row r="12">
@@ -24050,28 +24050,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>238.4858490720558</v>
+        <v>343.1688455345446</v>
       </c>
       <c r="AB12" t="n">
-        <v>326.3068599533425</v>
+        <v>469.5387540013348</v>
       </c>
       <c r="AC12" t="n">
-        <v>295.1645912140468</v>
+        <v>424.7266343212268</v>
       </c>
       <c r="AD12" t="n">
-        <v>238485.8490720558</v>
+        <v>343168.8455345446</v>
       </c>
       <c r="AE12" t="n">
-        <v>326306.8599533425</v>
+        <v>469538.7540013348</v>
       </c>
       <c r="AF12" t="n">
         <v>9.581222039107731e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>21</v>
+        <v>20.859375</v>
       </c>
       <c r="AH12" t="n">
-        <v>295164.5912140468</v>
+        <v>424726.6343212267</v>
       </c>
     </row>
   </sheetData>
@@ -24347,28 +24347,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>282.1316769683286</v>
+        <v>394.8755575843859</v>
       </c>
       <c r="AB2" t="n">
-        <v>386.0250071992071</v>
+        <v>540.2861585670685</v>
       </c>
       <c r="AC2" t="n">
-        <v>349.1833223016143</v>
+        <v>488.7220058898128</v>
       </c>
       <c r="AD2" t="n">
-        <v>282131.6769683286</v>
+        <v>394875.557584386</v>
       </c>
       <c r="AE2" t="n">
-        <v>386025.0071992071</v>
+        <v>540286.1585670685</v>
       </c>
       <c r="AF2" t="n">
         <v>9.438206636000083e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>25</v>
+        <v>24.0625</v>
       </c>
       <c r="AH2" t="n">
-        <v>349183.3223016143</v>
+        <v>488722.0058898128</v>
       </c>
     </row>
     <row r="3">
@@ -24453,28 +24453,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>246.1196837214011</v>
+        <v>358.8625533076044</v>
       </c>
       <c r="AB3" t="n">
-        <v>336.7518093015875</v>
+        <v>491.0115773339579</v>
       </c>
       <c r="AC3" t="n">
-        <v>304.6126892560771</v>
+        <v>444.1501215322812</v>
       </c>
       <c r="AD3" t="n">
-        <v>246119.6837214011</v>
+        <v>358862.5533076044</v>
       </c>
       <c r="AE3" t="n">
-        <v>336751.8093015875</v>
+        <v>491011.5773339579</v>
       </c>
       <c r="AF3" t="n">
         <v>1.041977593960361e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>22</v>
+        <v>21.796875</v>
       </c>
       <c r="AH3" t="n">
-        <v>304612.6892560771</v>
+        <v>444150.1215322812</v>
       </c>
     </row>
     <row r="4">
@@ -24559,28 +24559,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>243.7491636218659</v>
+        <v>347.0579454504987</v>
       </c>
       <c r="AB4" t="n">
-        <v>333.5083591214392</v>
+        <v>474.8599920813222</v>
       </c>
       <c r="AC4" t="n">
-        <v>301.6787894089101</v>
+        <v>429.5400209072646</v>
       </c>
       <c r="AD4" t="n">
-        <v>243749.1636218659</v>
+        <v>347057.9454504987</v>
       </c>
       <c r="AE4" t="n">
-        <v>333508.3591214392</v>
+        <v>474859.9920813222</v>
       </c>
       <c r="AF4" t="n">
         <v>1.072478285756181e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>22</v>
+        <v>21.171875</v>
       </c>
       <c r="AH4" t="n">
-        <v>301678.7894089101</v>
+        <v>429540.0209072647</v>
       </c>
     </row>
     <row r="5">
@@ -24665,28 +24665,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>232.8065841041194</v>
+        <v>336.1826857404565</v>
       </c>
       <c r="AB5" t="n">
-        <v>318.5362390727286</v>
+        <v>459.9799819634454</v>
       </c>
       <c r="AC5" t="n">
-        <v>288.1355874841412</v>
+        <v>416.0801380708127</v>
       </c>
       <c r="AD5" t="n">
-        <v>232806.5841041194</v>
+        <v>336182.6857404565</v>
       </c>
       <c r="AE5" t="n">
-        <v>318536.2390727286</v>
+        <v>459979.9819634454</v>
       </c>
       <c r="AF5" t="n">
         <v>1.086468308530128e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>21</v>
+        <v>20.91145833333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>288135.5874841412</v>
+        <v>416080.1380708127</v>
       </c>
     </row>
     <row r="6">
@@ -24771,28 +24771,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>231.6410048725841</v>
+        <v>335.0171065089211</v>
       </c>
       <c r="AB6" t="n">
-        <v>316.9414421464163</v>
+        <v>458.3851850371323</v>
       </c>
       <c r="AC6" t="n">
-        <v>286.6929957381641</v>
+        <v>414.6375463248354</v>
       </c>
       <c r="AD6" t="n">
-        <v>231641.0048725841</v>
+        <v>335017.1065089211</v>
       </c>
       <c r="AE6" t="n">
-        <v>316941.4421464162</v>
+        <v>458385.1850371322</v>
       </c>
       <c r="AF6" t="n">
         <v>1.097484143170712e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>21</v>
+        <v>20.703125</v>
       </c>
       <c r="AH6" t="n">
-        <v>286692.9957381641</v>
+        <v>414637.5463248354</v>
       </c>
     </row>
     <row r="7">
@@ -24877,28 +24877,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>230.2139930097086</v>
+        <v>333.4886094195604</v>
       </c>
       <c r="AB7" t="n">
-        <v>314.9889415603106</v>
+        <v>456.2938278869364</v>
       </c>
       <c r="AC7" t="n">
-        <v>284.9268390676441</v>
+        <v>412.745785365816</v>
       </c>
       <c r="AD7" t="n">
-        <v>230213.9930097086</v>
+        <v>333488.6094195604</v>
       </c>
       <c r="AE7" t="n">
-        <v>314988.9415603107</v>
+        <v>456293.8278869364</v>
       </c>
       <c r="AF7" t="n">
         <v>1.108255762949905e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>21</v>
+        <v>20.49479166666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>284926.8390676441</v>
+        <v>412745.785365816</v>
       </c>
     </row>
     <row r="8">
@@ -24983,28 +24983,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>230.3757235583507</v>
+        <v>333.6503399682026</v>
       </c>
       <c r="AB8" t="n">
-        <v>315.210228432011</v>
+        <v>456.5151147586369</v>
       </c>
       <c r="AC8" t="n">
-        <v>285.1270066308875</v>
+        <v>412.9459529290594</v>
       </c>
       <c r="AD8" t="n">
-        <v>230375.7235583507</v>
+        <v>333650.3399682026</v>
       </c>
       <c r="AE8" t="n">
-        <v>315210.228432011</v>
+        <v>456515.1147586369</v>
       </c>
       <c r="AF8" t="n">
         <v>1.107976660251172e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>21</v>
+        <v>20.49479166666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>285127.0066308875</v>
+        <v>412945.9529290595</v>
       </c>
     </row>
   </sheetData>
@@ -46917,28 +46917,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>252.1632141315181</v>
+        <v>363.8006577245682</v>
       </c>
       <c r="AB2" t="n">
-        <v>345.02083423045</v>
+        <v>497.7681096510393</v>
       </c>
       <c r="AC2" t="n">
-        <v>312.0925300513808</v>
+        <v>450.261819887873</v>
       </c>
       <c r="AD2" t="n">
-        <v>252163.2141315182</v>
+        <v>363800.6577245682</v>
       </c>
       <c r="AE2" t="n">
-        <v>345020.83423045</v>
+        <v>497768.1096510392</v>
       </c>
       <c r="AF2" t="n">
         <v>1.118055686493646e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>23</v>
+        <v>22.8125</v>
       </c>
       <c r="AH2" t="n">
-        <v>312092.5300513809</v>
+        <v>450261.819887873</v>
       </c>
     </row>
     <row r="3">
@@ -47023,28 +47023,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>237.3807186935275</v>
+        <v>330.4072384811299</v>
       </c>
       <c r="AB3" t="n">
-        <v>324.7947718145296</v>
+        <v>452.0777602284842</v>
       </c>
       <c r="AC3" t="n">
-        <v>293.7968146449726</v>
+        <v>408.9320932873985</v>
       </c>
       <c r="AD3" t="n">
-        <v>237380.7186935275</v>
+        <v>330407.2384811299</v>
       </c>
       <c r="AE3" t="n">
-        <v>324794.7718145296</v>
+        <v>452077.7602284842</v>
       </c>
       <c r="AF3" t="n">
         <v>1.208983908193608e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>22</v>
+        <v>21.09375</v>
       </c>
       <c r="AH3" t="n">
-        <v>293796.8146449726</v>
+        <v>408932.0932873985</v>
       </c>
     </row>
     <row r="4">
@@ -47129,28 +47129,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>225.9940448257879</v>
+        <v>328.3255210011852</v>
       </c>
       <c r="AB4" t="n">
-        <v>309.2150222840987</v>
+        <v>449.2294625335304</v>
       </c>
       <c r="AC4" t="n">
-        <v>279.7039745434053</v>
+        <v>406.3556331268401</v>
       </c>
       <c r="AD4" t="n">
-        <v>225994.0448257879</v>
+        <v>328325.5210011852</v>
       </c>
       <c r="AE4" t="n">
-        <v>309215.0222840987</v>
+        <v>449229.4625335304</v>
       </c>
       <c r="AF4" t="n">
         <v>1.236067451552479e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>21</v>
+        <v>20.625</v>
       </c>
       <c r="AH4" t="n">
-        <v>279703.9745434053</v>
+        <v>406355.6331268401</v>
       </c>
     </row>
     <row r="5">
@@ -47235,28 +47235,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>224.6422683954085</v>
+        <v>317.6346227642299</v>
       </c>
       <c r="AB5" t="n">
-        <v>307.3654621358874</v>
+        <v>434.6017039165852</v>
       </c>
       <c r="AC5" t="n">
-        <v>278.0309338198646</v>
+        <v>393.1239272621079</v>
       </c>
       <c r="AD5" t="n">
-        <v>224642.2683954085</v>
+        <v>317634.6227642299</v>
       </c>
       <c r="AE5" t="n">
-        <v>307365.4621358874</v>
+        <v>434601.7039165852</v>
       </c>
       <c r="AF5" t="n">
         <v>1.251504581510374e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>21</v>
+        <v>20.390625</v>
       </c>
       <c r="AH5" t="n">
-        <v>278030.9338198646</v>
+        <v>393123.927262108</v>
       </c>
     </row>
     <row r="6">
@@ -47341,28 +47341,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>224.6534182651007</v>
+        <v>317.6457726339221</v>
       </c>
       <c r="AB6" t="n">
-        <v>307.3807178794978</v>
+        <v>434.6169596601956</v>
       </c>
       <c r="AC6" t="n">
-        <v>278.0447335767165</v>
+        <v>393.1377270189598</v>
       </c>
       <c r="AD6" t="n">
-        <v>224653.4182651007</v>
+        <v>317645.7726339221</v>
       </c>
       <c r="AE6" t="n">
-        <v>307380.7178794977</v>
+        <v>434616.9596601956</v>
       </c>
       <c r="AF6" t="n">
         <v>1.252131470036583e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>21</v>
+        <v>20.36458333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>278044.7335767164</v>
+        <v>393137.7270189598</v>
       </c>
     </row>
   </sheetData>
@@ -47638,28 +47638,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>214.6045102118254</v>
+        <v>314.8652147671256</v>
       </c>
       <c r="AB2" t="n">
-        <v>293.6313585544784</v>
+        <v>430.8124777172893</v>
       </c>
       <c r="AC2" t="n">
-        <v>265.6075938083256</v>
+        <v>389.6963394930604</v>
       </c>
       <c r="AD2" t="n">
-        <v>214604.5102118254</v>
+        <v>314865.2147671256</v>
       </c>
       <c r="AE2" t="n">
-        <v>293631.3585544784</v>
+        <v>430812.4777172892</v>
       </c>
       <c r="AF2" t="n">
         <v>1.613877621686796e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>20.91145833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>265607.5938083256</v>
+        <v>389696.3394930604</v>
       </c>
     </row>
     <row r="3">
@@ -47744,28 +47744,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>213.240642806456</v>
+        <v>304.3504775206436</v>
       </c>
       <c r="AB3" t="n">
-        <v>291.7652550008696</v>
+        <v>416.4257503391841</v>
       </c>
       <c r="AC3" t="n">
-        <v>263.9195885587799</v>
+        <v>376.6826611840229</v>
       </c>
       <c r="AD3" t="n">
-        <v>213240.642806456</v>
+        <v>304350.4775206436</v>
       </c>
       <c r="AE3" t="n">
-        <v>291765.2550008696</v>
+        <v>416425.7503391841</v>
       </c>
       <c r="AF3" t="n">
         <v>1.653649361817949e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>21</v>
+        <v>20.390625</v>
       </c>
       <c r="AH3" t="n">
-        <v>263919.5885587799</v>
+        <v>376682.6611840229</v>
       </c>
     </row>
   </sheetData>
@@ -48041,28 +48041,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>354.8215250060904</v>
+        <v>489.4402978894267</v>
       </c>
       <c r="AB2" t="n">
-        <v>485.48246413424</v>
+        <v>669.6738081543294</v>
       </c>
       <c r="AC2" t="n">
-        <v>439.1486991361854</v>
+        <v>605.7610797971723</v>
       </c>
       <c r="AD2" t="n">
-        <v>354821.5250060905</v>
+        <v>489440.2978894267</v>
       </c>
       <c r="AE2" t="n">
-        <v>485482.4641342401</v>
+        <v>669673.8081543294</v>
       </c>
       <c r="AF2" t="n">
         <v>6.414673892073475e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>29</v>
+        <v>28.25520833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>439148.6991361853</v>
+        <v>605761.0797971723</v>
       </c>
     </row>
     <row r="3">
@@ -48147,28 +48147,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>299.0477902390878</v>
+        <v>414.4256927379897</v>
       </c>
       <c r="AB3" t="n">
-        <v>409.1703796625071</v>
+        <v>567.0355159753204</v>
       </c>
       <c r="AC3" t="n">
-        <v>370.1197329017513</v>
+        <v>512.9184421699803</v>
       </c>
       <c r="AD3" t="n">
-        <v>299047.7902390878</v>
+        <v>414425.6927379897</v>
       </c>
       <c r="AE3" t="n">
-        <v>409170.3796625071</v>
+        <v>567035.5159753205</v>
       </c>
       <c r="AF3" t="n">
         <v>7.519291440054837e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>25</v>
+        <v>24.11458333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>370119.7329017512</v>
+        <v>512918.4421699803</v>
       </c>
     </row>
     <row r="4">
@@ -48253,28 +48253,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>274.8692346574253</v>
+        <v>390.2802915452508</v>
       </c>
       <c r="AB4" t="n">
-        <v>376.0882132330869</v>
+        <v>533.998712843494</v>
       </c>
       <c r="AC4" t="n">
-        <v>340.1948820052426</v>
+        <v>483.0346251616108</v>
       </c>
       <c r="AD4" t="n">
-        <v>274869.2346574253</v>
+        <v>390280.2915452508</v>
       </c>
       <c r="AE4" t="n">
-        <v>376088.2132330869</v>
+        <v>533998.712843494</v>
       </c>
       <c r="AF4" t="n">
         <v>7.907285569968906e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>23</v>
+        <v>22.91666666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>340194.8820052426</v>
+        <v>483034.6251616108</v>
       </c>
     </row>
     <row r="5">
@@ -48359,28 +48359,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>272.503395543423</v>
+        <v>378.2608628501077</v>
       </c>
       <c r="AB5" t="n">
-        <v>372.8511677838536</v>
+        <v>517.5532002430292</v>
       </c>
       <c r="AC5" t="n">
-        <v>337.2667756304624</v>
+        <v>468.1586492023123</v>
       </c>
       <c r="AD5" t="n">
-        <v>272503.395543423</v>
+        <v>378260.8628501077</v>
       </c>
       <c r="AE5" t="n">
-        <v>372851.1677838535</v>
+        <v>517553.2002430292</v>
       </c>
       <c r="AF5" t="n">
         <v>8.119760202906601e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>23</v>
+        <v>22.31770833333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>337266.7756304624</v>
+        <v>468158.6492023123</v>
       </c>
     </row>
     <row r="6">
@@ -48465,28 +48465,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>271.089050735328</v>
+        <v>376.8465180420127</v>
       </c>
       <c r="AB6" t="n">
-        <v>370.9159988209287</v>
+        <v>515.6180312801042</v>
       </c>
       <c r="AC6" t="n">
-        <v>335.5162964773324</v>
+        <v>466.4081700491823</v>
       </c>
       <c r="AD6" t="n">
-        <v>271089.050735328</v>
+        <v>376846.5180420127</v>
       </c>
       <c r="AE6" t="n">
-        <v>370915.9988209287</v>
+        <v>515618.0312801042</v>
       </c>
       <c r="AF6" t="n">
         <v>8.226101912414887e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>23</v>
+        <v>22.03125</v>
       </c>
       <c r="AH6" t="n">
-        <v>335516.2964773324</v>
+        <v>466408.1700491823</v>
       </c>
     </row>
     <row r="7">
@@ -48571,28 +48571,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>260.1153503531651</v>
+        <v>365.9401374675542</v>
       </c>
       <c r="AB7" t="n">
-        <v>355.9012978325604</v>
+        <v>500.6954402225775</v>
       </c>
       <c r="AC7" t="n">
-        <v>321.9345774780288</v>
+        <v>452.9097701381979</v>
       </c>
       <c r="AD7" t="n">
-        <v>260115.3503531651</v>
+        <v>365940.1374675542</v>
       </c>
       <c r="AE7" t="n">
-        <v>355901.2978325604</v>
+        <v>500695.4402225775</v>
       </c>
       <c r="AF7" t="n">
         <v>8.322004317979298e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>22</v>
+        <v>21.77083333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>321934.5774780288</v>
+        <v>452909.7701381979</v>
       </c>
     </row>
     <row r="8">
@@ -48677,28 +48677,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>259.2663058310659</v>
+        <v>365.091092945455</v>
       </c>
       <c r="AB8" t="n">
-        <v>354.7395976602236</v>
+        <v>499.5337400502407</v>
       </c>
       <c r="AC8" t="n">
-        <v>320.8837483396835</v>
+        <v>451.8589409998525</v>
       </c>
       <c r="AD8" t="n">
-        <v>259266.3058310659</v>
+        <v>365091.092945455</v>
       </c>
       <c r="AE8" t="n">
-        <v>354739.5976602236</v>
+        <v>499533.7400502407</v>
       </c>
       <c r="AF8" t="n">
         <v>8.37768060567997e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>22</v>
+        <v>21.640625</v>
       </c>
       <c r="AH8" t="n">
-        <v>320883.7483396835</v>
+        <v>451858.9409998525</v>
       </c>
     </row>
     <row r="9">
@@ -48783,28 +48783,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>258.6061361717855</v>
+        <v>364.4309232861747</v>
       </c>
       <c r="AB9" t="n">
-        <v>353.8363244077663</v>
+        <v>498.6304667977834</v>
       </c>
       <c r="AC9" t="n">
-        <v>320.0666822186886</v>
+        <v>451.0418748788578</v>
       </c>
       <c r="AD9" t="n">
-        <v>258606.1361717855</v>
+        <v>364430.9232861747</v>
       </c>
       <c r="AE9" t="n">
-        <v>353836.3244077663</v>
+        <v>498630.4667977834</v>
       </c>
       <c r="AF9" t="n">
         <v>8.419924988972856e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>22</v>
+        <v>21.53645833333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>320066.6822186887</v>
+        <v>451041.8748788578</v>
       </c>
     </row>
     <row r="10">
@@ -48889,28 +48889,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>257.5995602145935</v>
+        <v>363.3228621025005</v>
       </c>
       <c r="AB10" t="n">
-        <v>352.4590827759723</v>
+        <v>497.1143686020711</v>
       </c>
       <c r="AC10" t="n">
-        <v>318.8208825953683</v>
+        <v>449.670470967087</v>
       </c>
       <c r="AD10" t="n">
-        <v>257599.5602145934</v>
+        <v>363322.8621025005</v>
       </c>
       <c r="AE10" t="n">
-        <v>352459.0827759723</v>
+        <v>497114.3686020711</v>
       </c>
       <c r="AF10" t="n">
         <v>8.471773531894109e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>22</v>
+        <v>21.40625</v>
       </c>
       <c r="AH10" t="n">
-        <v>318820.8825953683</v>
+        <v>449670.470967087</v>
       </c>
     </row>
     <row r="11">
@@ -48995,28 +48995,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>257.3582323178954</v>
+        <v>363.0815342058024</v>
       </c>
       <c r="AB11" t="n">
-        <v>352.1288873010748</v>
+        <v>496.7841731271734</v>
       </c>
       <c r="AC11" t="n">
-        <v>318.5222005131627</v>
+        <v>449.3717888848813</v>
       </c>
       <c r="AD11" t="n">
-        <v>257358.2323178954</v>
+        <v>363081.5342058024</v>
       </c>
       <c r="AE11" t="n">
-        <v>352128.8873010747</v>
+        <v>496784.1731271734</v>
       </c>
       <c r="AF11" t="n">
         <v>8.470868792218973e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>22</v>
+        <v>21.40625</v>
       </c>
       <c r="AH11" t="n">
-        <v>318522.2005131627</v>
+        <v>449371.7888848813</v>
       </c>
     </row>
     <row r="12">
@@ -49101,28 +49101,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>256.56303551664</v>
+        <v>362.2863374045471</v>
       </c>
       <c r="AB12" t="n">
-        <v>351.0408639559908</v>
+        <v>495.6961497820889</v>
       </c>
       <c r="AC12" t="n">
-        <v>317.5380165890828</v>
+        <v>448.3876049608013</v>
       </c>
       <c r="AD12" t="n">
-        <v>256563.03551664</v>
+        <v>362286.3374045471</v>
       </c>
       <c r="AE12" t="n">
-        <v>351040.8639559908</v>
+        <v>495696.1497820889</v>
       </c>
       <c r="AF12" t="n">
         <v>8.519585543957062e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>22</v>
+        <v>21.27604166666667</v>
       </c>
       <c r="AH12" t="n">
-        <v>317538.0165890828</v>
+        <v>448387.6049608013</v>
       </c>
     </row>
     <row r="13">
@@ -49207,28 +49207,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>256.1831110744441</v>
+        <v>361.9064129623512</v>
       </c>
       <c r="AB13" t="n">
-        <v>350.5210345730952</v>
+        <v>495.1763203991931</v>
       </c>
       <c r="AC13" t="n">
-        <v>317.0677989929055</v>
+        <v>447.9173873646239</v>
       </c>
       <c r="AD13" t="n">
-        <v>256183.1110744441</v>
+        <v>361906.4129623512</v>
       </c>
       <c r="AE13" t="n">
-        <v>350521.0345730952</v>
+        <v>495176.320399193</v>
       </c>
       <c r="AF13" t="n">
         <v>8.523622074815362e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>22</v>
+        <v>21.25</v>
       </c>
       <c r="AH13" t="n">
-        <v>317067.7989929055</v>
+        <v>447917.3873646239</v>
       </c>
     </row>
     <row r="14">
@@ -49313,28 +49313,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>255.4849362389135</v>
+        <v>361.2082381268206</v>
       </c>
       <c r="AB14" t="n">
-        <v>349.5657609618228</v>
+        <v>494.2210467879201</v>
       </c>
       <c r="AC14" t="n">
-        <v>316.2036953543577</v>
+        <v>447.053283726076</v>
       </c>
       <c r="AD14" t="n">
-        <v>255484.9362389135</v>
+        <v>361208.2381268205</v>
       </c>
       <c r="AE14" t="n">
-        <v>349565.7609618228</v>
+        <v>494221.0467879201</v>
       </c>
       <c r="AF14" t="n">
         <v>8.521882190824715e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>22</v>
+        <v>21.27604166666667</v>
       </c>
       <c r="AH14" t="n">
-        <v>316203.6953543577</v>
+        <v>447053.283726076</v>
       </c>
     </row>
     <row r="15">
@@ -49419,28 +49419,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>254.919217575968</v>
+        <v>360.642519463875</v>
       </c>
       <c r="AB15" t="n">
-        <v>348.7917197294352</v>
+        <v>493.447005555532</v>
       </c>
       <c r="AC15" t="n">
-        <v>315.5035275308152</v>
+        <v>446.3531159025333</v>
       </c>
       <c r="AD15" t="n">
-        <v>254919.217575968</v>
+        <v>360642.519463875</v>
       </c>
       <c r="AE15" t="n">
-        <v>348791.7197294352</v>
+        <v>493447.0055555321</v>
       </c>
       <c r="AF15" t="n">
         <v>8.572060445114947e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>22</v>
+        <v>21.14583333333333</v>
       </c>
       <c r="AH15" t="n">
-        <v>315503.5275308152</v>
+        <v>446353.1159025333</v>
       </c>
     </row>
     <row r="16">
@@ -49525,28 +49525,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>255.0931678467381</v>
+        <v>360.8164697346451</v>
       </c>
       <c r="AB16" t="n">
-        <v>349.029726164047</v>
+        <v>493.6850119901441</v>
       </c>
       <c r="AC16" t="n">
-        <v>315.7188189653518</v>
+        <v>446.56840733707</v>
       </c>
       <c r="AD16" t="n">
-        <v>255093.1678467381</v>
+        <v>360816.4697346451</v>
       </c>
       <c r="AE16" t="n">
-        <v>349029.726164047</v>
+        <v>493685.011990144</v>
       </c>
       <c r="AF16" t="n">
         <v>8.571712468316818e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>22</v>
+        <v>21.14583333333333</v>
       </c>
       <c r="AH16" t="n">
-        <v>315718.8189653518</v>
+        <v>446568.40733707</v>
       </c>
     </row>
   </sheetData>
@@ -49822,28 +49822,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>409.5881315441337</v>
+        <v>565.2679070050071</v>
       </c>
       <c r="AB2" t="n">
-        <v>560.416551331749</v>
+        <v>773.4244882242829</v>
       </c>
       <c r="AC2" t="n">
-        <v>506.9311822222161</v>
+        <v>699.6099405762435</v>
       </c>
       <c r="AD2" t="n">
-        <v>409588.1315441336</v>
+        <v>565267.9070050071</v>
       </c>
       <c r="AE2" t="n">
-        <v>560416.5513317491</v>
+        <v>773424.4882242829</v>
       </c>
       <c r="AF2" t="n">
         <v>5.218165615967686e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>32</v>
+        <v>31.38020833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>506931.1822222161</v>
+        <v>699609.9405762434</v>
       </c>
     </row>
     <row r="3">
@@ -49928,28 +49928,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>325.0095616066011</v>
+        <v>461.2498338704784</v>
       </c>
       <c r="AB3" t="n">
-        <v>444.6924206000566</v>
+        <v>631.1023716081061</v>
       </c>
       <c r="AC3" t="n">
-        <v>402.2516001077186</v>
+        <v>570.8708470195693</v>
       </c>
       <c r="AD3" t="n">
-        <v>325009.5616066011</v>
+        <v>461249.8338704784</v>
       </c>
       <c r="AE3" t="n">
-        <v>444692.4206000565</v>
+        <v>631102.3716081061</v>
       </c>
       <c r="AF3" t="n">
         <v>6.34892118901976e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>26</v>
+        <v>25.78125</v>
       </c>
       <c r="AH3" t="n">
-        <v>402251.6001077186</v>
+        <v>570870.8470195692</v>
       </c>
     </row>
     <row r="4">
@@ -50034,28 +50034,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>308.1888627584418</v>
+        <v>424.9574884662565</v>
       </c>
       <c r="AB4" t="n">
-        <v>421.677598359145</v>
+        <v>581.4455835207708</v>
       </c>
       <c r="AC4" t="n">
-        <v>381.4332801999738</v>
+        <v>525.9532330935494</v>
       </c>
       <c r="AD4" t="n">
-        <v>308188.8627584418</v>
+        <v>424957.4884662565</v>
       </c>
       <c r="AE4" t="n">
-        <v>421677.598359145</v>
+        <v>581445.5835207708</v>
       </c>
       <c r="AF4" t="n">
         <v>6.775918037972742e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>25</v>
+        <v>24.16666666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>381433.2801999737</v>
+        <v>525953.2330935495</v>
       </c>
     </row>
     <row r="5">
@@ -50140,28 +50140,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>295.2645101951106</v>
+        <v>411.9989704841444</v>
       </c>
       <c r="AB5" t="n">
-        <v>403.9939289998015</v>
+        <v>563.7151675281794</v>
       </c>
       <c r="AC5" t="n">
-        <v>365.4373154251002</v>
+        <v>509.914983118496</v>
       </c>
       <c r="AD5" t="n">
-        <v>295264.5101951106</v>
+        <v>411998.9704841443</v>
       </c>
       <c r="AE5" t="n">
-        <v>403993.9289998015</v>
+        <v>563715.1675281795</v>
       </c>
       <c r="AF5" t="n">
         <v>6.986272155755913e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>24</v>
+        <v>23.4375</v>
       </c>
       <c r="AH5" t="n">
-        <v>365437.3154251002</v>
+        <v>509914.983118496</v>
       </c>
     </row>
     <row r="6">
@@ -50246,28 +50246,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>293.3682801676196</v>
+        <v>400.4347425012552</v>
       </c>
       <c r="AB6" t="n">
-        <v>401.3994234204237</v>
+        <v>547.8924806242584</v>
       </c>
       <c r="AC6" t="n">
-        <v>363.0904258168068</v>
+        <v>495.6023912454046</v>
       </c>
       <c r="AD6" t="n">
-        <v>293368.2801676196</v>
+        <v>400434.7425012552</v>
       </c>
       <c r="AE6" t="n">
-        <v>401399.4234204237</v>
+        <v>547892.4806242584</v>
       </c>
       <c r="AF6" t="n">
         <v>7.114056779772475e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>24</v>
+        <v>23.02083333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>363090.4258168068</v>
+        <v>495602.3912454046</v>
       </c>
     </row>
     <row r="7">
@@ -50352,28 +50352,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>282.0131463609466</v>
+        <v>398.814926457685</v>
       </c>
       <c r="AB7" t="n">
-        <v>385.8628283929858</v>
+        <v>545.6761768522052</v>
       </c>
       <c r="AC7" t="n">
-        <v>349.0366216130394</v>
+        <v>493.5976083947543</v>
       </c>
       <c r="AD7" t="n">
-        <v>282013.1463609466</v>
+        <v>398814.926457685</v>
       </c>
       <c r="AE7" t="n">
-        <v>385862.8283929857</v>
+        <v>545676.1768522052</v>
       </c>
       <c r="AF7" t="n">
         <v>7.212662237675019e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>23</v>
+        <v>22.70833333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>349036.6216130394</v>
+        <v>493597.6083947543</v>
       </c>
     </row>
     <row r="8">
@@ -50458,28 +50458,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>280.879223485489</v>
+        <v>397.579518355742</v>
       </c>
       <c r="AB8" t="n">
-        <v>384.3113450896379</v>
+        <v>543.9858369847681</v>
       </c>
       <c r="AC8" t="n">
-        <v>347.6332096986426</v>
+        <v>492.0685921918584</v>
       </c>
       <c r="AD8" t="n">
-        <v>280879.223485489</v>
+        <v>397579.518355742</v>
       </c>
       <c r="AE8" t="n">
-        <v>384311.3450896379</v>
+        <v>543985.836984768</v>
       </c>
       <c r="AF8" t="n">
         <v>7.295357503709359e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>23</v>
+        <v>22.44791666666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>347633.2096986426</v>
+        <v>492068.5921918584</v>
       </c>
     </row>
     <row r="9">
@@ -50564,28 +50564,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>279.9854811037727</v>
+        <v>387.0177780186274</v>
       </c>
       <c r="AB9" t="n">
-        <v>383.0884873338424</v>
+        <v>529.5347979044293</v>
       </c>
       <c r="AC9" t="n">
-        <v>346.5270597707686</v>
+        <v>478.9967399991864</v>
       </c>
       <c r="AD9" t="n">
-        <v>279985.4811037726</v>
+        <v>387017.7780186274</v>
       </c>
       <c r="AE9" t="n">
-        <v>383088.4873338424</v>
+        <v>529534.7979044293</v>
       </c>
       <c r="AF9" t="n">
         <v>7.349376692700613e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>23</v>
+        <v>22.29166666666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>346527.0597707686</v>
+        <v>478996.7399991864</v>
       </c>
     </row>
     <row r="10">
@@ -50670,28 +50670,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>279.2937127661132</v>
+        <v>386.326009680968</v>
       </c>
       <c r="AB10" t="n">
-        <v>382.1419793755917</v>
+        <v>528.5882899461785</v>
       </c>
       <c r="AC10" t="n">
-        <v>345.6708852036211</v>
+        <v>478.1405654320388</v>
       </c>
       <c r="AD10" t="n">
-        <v>279293.7127661132</v>
+        <v>386326.009680968</v>
       </c>
       <c r="AE10" t="n">
-        <v>382141.9793755917</v>
+        <v>528588.2899461786</v>
       </c>
       <c r="AF10" t="n">
         <v>7.392579466666842e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>23</v>
+        <v>22.16145833333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>345670.8852036211</v>
+        <v>478140.5654320389</v>
       </c>
     </row>
     <row r="11">
@@ -50776,28 +50776,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>278.995484319732</v>
+        <v>386.0277812345868</v>
       </c>
       <c r="AB11" t="n">
-        <v>381.7339300583425</v>
+        <v>528.1802406289294</v>
       </c>
       <c r="AC11" t="n">
-        <v>345.3017795405093</v>
+        <v>477.7714597689271</v>
       </c>
       <c r="AD11" t="n">
-        <v>278995.4843197321</v>
+        <v>386027.7812345868</v>
       </c>
       <c r="AE11" t="n">
-        <v>381733.9300583425</v>
+        <v>528180.2406289293</v>
       </c>
       <c r="AF11" t="n">
         <v>7.388240323430059e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>23</v>
+        <v>22.16145833333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>345301.7795405093</v>
+        <v>477771.4597689271</v>
       </c>
     </row>
     <row r="12">
@@ -50882,28 +50882,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>278.1295894135003</v>
+        <v>385.161886328355</v>
       </c>
       <c r="AB12" t="n">
-        <v>380.5491744470489</v>
+        <v>526.9954850176357</v>
       </c>
       <c r="AC12" t="n">
-        <v>344.2300953419426</v>
+        <v>476.6997755703605</v>
       </c>
       <c r="AD12" t="n">
-        <v>278129.5894135003</v>
+        <v>385161.8863283549</v>
       </c>
       <c r="AE12" t="n">
-        <v>380549.1744470489</v>
+        <v>526995.4850176357</v>
       </c>
       <c r="AF12" t="n">
         <v>7.445844022051698e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>23</v>
+        <v>22.00520833333333</v>
       </c>
       <c r="AH12" t="n">
-        <v>344230.0953419426</v>
+        <v>476699.7755703605</v>
       </c>
     </row>
     <row r="13">
@@ -50988,28 +50988,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>267.9255120875611</v>
+        <v>384.6931267655186</v>
       </c>
       <c r="AB13" t="n">
-        <v>366.587505677579</v>
+        <v>526.3541075035506</v>
       </c>
       <c r="AC13" t="n">
-        <v>331.6009086445058</v>
+        <v>476.1196102260407</v>
       </c>
       <c r="AD13" t="n">
-        <v>267925.5120875611</v>
+        <v>384693.1267655186</v>
       </c>
       <c r="AE13" t="n">
-        <v>366587.505677579</v>
+        <v>526354.1075035506</v>
       </c>
       <c r="AF13" t="n">
         <v>7.448485239674089e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>22</v>
+        <v>21.97916666666667</v>
       </c>
       <c r="AH13" t="n">
-        <v>331600.9086445058</v>
+        <v>476119.6102260406</v>
       </c>
     </row>
     <row r="14">
@@ -51094,28 +51094,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>267.317722904474</v>
+        <v>384.0853375824315</v>
       </c>
       <c r="AB14" t="n">
-        <v>365.7559017035129</v>
+        <v>525.5225035294845</v>
       </c>
       <c r="AC14" t="n">
-        <v>330.848671786561</v>
+        <v>475.367373368096</v>
       </c>
       <c r="AD14" t="n">
-        <v>267317.722904474</v>
+        <v>384085.3375824315</v>
       </c>
       <c r="AE14" t="n">
-        <v>365755.9017035129</v>
+        <v>525522.5035294845</v>
       </c>
       <c r="AF14" t="n">
         <v>7.484456108245681e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>22</v>
+        <v>21.875</v>
       </c>
       <c r="AH14" t="n">
-        <v>330848.671786561</v>
+        <v>475367.373368096</v>
       </c>
     </row>
     <row r="15">
@@ -51200,28 +51200,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>267.0606758760657</v>
+        <v>383.8282905540232</v>
       </c>
       <c r="AB15" t="n">
-        <v>365.4041986191301</v>
+        <v>525.1708004451018</v>
       </c>
       <c r="AC15" t="n">
-        <v>330.5305347509333</v>
+        <v>475.0492363324683</v>
       </c>
       <c r="AD15" t="n">
-        <v>267060.6758760657</v>
+        <v>383828.2905540232</v>
       </c>
       <c r="AE15" t="n">
-        <v>365404.1986191301</v>
+        <v>525170.8004451018</v>
       </c>
       <c r="AF15" t="n">
         <v>7.492379761112849e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>22</v>
+        <v>21.84895833333333</v>
       </c>
       <c r="AH15" t="n">
-        <v>330530.5347509334</v>
+        <v>475049.2363324683</v>
       </c>
     </row>
     <row r="16">
@@ -51306,28 +51306,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>266.5393556810537</v>
+        <v>383.3069703590111</v>
       </c>
       <c r="AB16" t="n">
-        <v>364.6909053292908</v>
+        <v>524.4575071552625</v>
       </c>
       <c r="AC16" t="n">
-        <v>329.8853171715629</v>
+        <v>474.4040187530978</v>
       </c>
       <c r="AD16" t="n">
-        <v>266539.3556810537</v>
+        <v>383306.9703590111</v>
       </c>
       <c r="AE16" t="n">
-        <v>364690.9053292908</v>
+        <v>524457.5071552625</v>
       </c>
       <c r="AF16" t="n">
         <v>7.500114755578419e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>22</v>
+        <v>21.82291666666667</v>
       </c>
       <c r="AH16" t="n">
-        <v>329885.3171715629</v>
+        <v>474404.0187530979</v>
       </c>
     </row>
     <row r="17">
@@ -51412,28 +51412,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>265.9843681821404</v>
+        <v>382.7519828600979</v>
       </c>
       <c r="AB17" t="n">
-        <v>363.9315469489572</v>
+        <v>523.6981487749289</v>
       </c>
       <c r="AC17" t="n">
-        <v>329.1984308892822</v>
+        <v>473.7171324708171</v>
       </c>
       <c r="AD17" t="n">
-        <v>265984.3681821404</v>
+        <v>382751.9828600979</v>
       </c>
       <c r="AE17" t="n">
-        <v>363931.5469489573</v>
+        <v>523698.1487749289</v>
       </c>
       <c r="AF17" t="n">
         <v>7.496341587546434e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>22</v>
+        <v>21.84895833333333</v>
       </c>
       <c r="AH17" t="n">
-        <v>329198.4308892822</v>
+        <v>473717.1324708171</v>
       </c>
     </row>
     <row r="18">
@@ -51518,28 +51518,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>265.4579794539089</v>
+        <v>372.5575961764681</v>
       </c>
       <c r="AB18" t="n">
-        <v>363.2113186683592</v>
+        <v>509.7497391697876</v>
       </c>
       <c r="AC18" t="n">
-        <v>328.5469401849377</v>
+        <v>461.0999395016746</v>
       </c>
       <c r="AD18" t="n">
-        <v>265457.9794539089</v>
+        <v>372557.5961764681</v>
       </c>
       <c r="AE18" t="n">
-        <v>363211.3186683592</v>
+        <v>509749.7391697876</v>
       </c>
       <c r="AF18" t="n">
         <v>7.548851509324892e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>22</v>
+        <v>21.69270833333333</v>
       </c>
       <c r="AH18" t="n">
-        <v>328546.9401849377</v>
+        <v>461099.9395016746</v>
       </c>
     </row>
     <row r="19">
@@ -51624,28 +51624,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>265.3323938825456</v>
+        <v>372.4320106051048</v>
       </c>
       <c r="AB19" t="n">
-        <v>363.0394869491755</v>
+        <v>509.5779074506038</v>
       </c>
       <c r="AC19" t="n">
-        <v>328.3915078438656</v>
+        <v>460.9445071606024</v>
       </c>
       <c r="AD19" t="n">
-        <v>265332.3938825456</v>
+        <v>372432.0106051048</v>
       </c>
       <c r="AE19" t="n">
-        <v>363039.4869491755</v>
+        <v>509577.9074506038</v>
       </c>
       <c r="AF19" t="n">
         <v>7.545078341292907e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>22</v>
+        <v>21.69270833333333</v>
       </c>
       <c r="AH19" t="n">
-        <v>328391.5078438655</v>
+        <v>460944.5071606024</v>
       </c>
     </row>
     <row r="20">
@@ -51730,28 +51730,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>264.9592994785962</v>
+        <v>372.0589162011554</v>
       </c>
       <c r="AB20" t="n">
-        <v>362.5290027259285</v>
+        <v>509.0674232273568</v>
       </c>
       <c r="AC20" t="n">
-        <v>327.9297435184161</v>
+        <v>460.482742835153</v>
       </c>
       <c r="AD20" t="n">
-        <v>264959.2994785962</v>
+        <v>372058.9162011554</v>
       </c>
       <c r="AE20" t="n">
-        <v>362529.0027259285</v>
+        <v>509067.4232273568</v>
       </c>
       <c r="AF20" t="n">
         <v>7.548851509324892e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>22</v>
+        <v>21.69270833333333</v>
       </c>
       <c r="AH20" t="n">
-        <v>327929.7435184161</v>
+        <v>460482.742835153</v>
       </c>
     </row>
     <row r="21">
@@ -51836,28 +51836,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>264.3997484113747</v>
+        <v>371.4993651339339</v>
       </c>
       <c r="AB21" t="n">
-        <v>361.7634002701053</v>
+        <v>508.3018207715335</v>
       </c>
       <c r="AC21" t="n">
-        <v>327.2372090864468</v>
+        <v>459.7902084031837</v>
       </c>
       <c r="AD21" t="n">
-        <v>264399.7484113747</v>
+        <v>371499.3651339339</v>
       </c>
       <c r="AE21" t="n">
-        <v>361763.4002701052</v>
+        <v>508301.8207715335</v>
       </c>
       <c r="AF21" t="n">
         <v>7.556649389924329e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>22</v>
+        <v>21.66666666666667</v>
       </c>
       <c r="AH21" t="n">
-        <v>327237.2090864468</v>
+        <v>459790.2084031837</v>
       </c>
     </row>
     <row r="22">
@@ -51942,28 +51942,28 @@
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>263.9643652087996</v>
+        <v>371.0639819313588</v>
       </c>
       <c r="AB22" t="n">
-        <v>361.1676897645907</v>
+        <v>507.706110266019</v>
       </c>
       <c r="AC22" t="n">
-        <v>326.6983523554936</v>
+        <v>459.2513516722305</v>
       </c>
       <c r="AD22" t="n">
-        <v>263964.3652087996</v>
+        <v>371063.9819313588</v>
       </c>
       <c r="AE22" t="n">
-        <v>361167.6897645907</v>
+        <v>507706.110266019</v>
       </c>
       <c r="AF22" t="n">
         <v>7.551618499215015e-06</v>
       </c>
       <c r="AG22" t="n">
-        <v>22</v>
+        <v>21.69270833333333</v>
       </c>
       <c r="AH22" t="n">
-        <v>326698.3523554936</v>
+        <v>459251.3516722305</v>
       </c>
     </row>
     <row r="23">
@@ -52048,28 +52048,28 @@
         <v>10</v>
       </c>
       <c r="AA23" t="n">
-        <v>263.8251910233808</v>
+        <v>370.92480774594</v>
       </c>
       <c r="AB23" t="n">
-        <v>360.9772655041689</v>
+        <v>507.5156860055972</v>
       </c>
       <c r="AC23" t="n">
-        <v>326.5261019192245</v>
+        <v>459.0791012359613</v>
       </c>
       <c r="AD23" t="n">
-        <v>263825.1910233808</v>
+        <v>370924.80774594</v>
       </c>
       <c r="AE23" t="n">
-        <v>360977.2655041689</v>
+        <v>507515.6860055972</v>
       </c>
       <c r="AF23" t="n">
         <v>7.552876221892343e-06</v>
       </c>
       <c r="AG23" t="n">
-        <v>22</v>
+        <v>21.69270833333333</v>
       </c>
       <c r="AH23" t="n">
-        <v>326526.1019192245</v>
+        <v>459079.1012359613</v>
       </c>
     </row>
   </sheetData>
@@ -52345,28 +52345,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>207.7035056851549</v>
+        <v>306.9957032014854</v>
       </c>
       <c r="AB2" t="n">
-        <v>284.1890997102601</v>
+        <v>420.0450648148326</v>
       </c>
       <c r="AC2" t="n">
-        <v>257.066490895903</v>
+        <v>379.9565533658553</v>
       </c>
       <c r="AD2" t="n">
-        <v>207703.5056851549</v>
+        <v>306995.7032014853</v>
       </c>
       <c r="AE2" t="n">
-        <v>284189.0997102601</v>
+        <v>420045.0648148326</v>
       </c>
       <c r="AF2" t="n">
         <v>1.909368317360467e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>20.80729166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>257066.490895903</v>
+        <v>379956.5533658553</v>
       </c>
     </row>
   </sheetData>
@@ -52642,28 +52642,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>287.3858407305678</v>
+        <v>410.1120774984759</v>
       </c>
       <c r="AB2" t="n">
-        <v>393.2139858560485</v>
+        <v>561.1334373013444</v>
       </c>
       <c r="AC2" t="n">
-        <v>355.6861949252417</v>
+        <v>507.5796496010289</v>
       </c>
       <c r="AD2" t="n">
-        <v>287385.8407305678</v>
+        <v>410112.0774984759</v>
       </c>
       <c r="AE2" t="n">
-        <v>393213.9858560485</v>
+        <v>561133.4373013445</v>
       </c>
       <c r="AF2" t="n">
         <v>8.782537401865387e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>25</v>
+        <v>24.66145833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>355686.1949252417</v>
+        <v>507579.6496010289</v>
       </c>
     </row>
     <row r="3">
@@ -52748,28 +52748,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>259.9397186757475</v>
+        <v>363.7465853337029</v>
       </c>
       <c r="AB3" t="n">
-        <v>355.660990823195</v>
+        <v>497.6941254203519</v>
       </c>
       <c r="AC3" t="n">
-        <v>321.7172050323642</v>
+        <v>450.1948966083249</v>
       </c>
       <c r="AD3" t="n">
-        <v>259939.7186757475</v>
+        <v>363746.5853337029</v>
       </c>
       <c r="AE3" t="n">
-        <v>355660.990823195</v>
+        <v>497694.1254203519</v>
       </c>
       <c r="AF3" t="n">
         <v>9.747091128871019e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>23</v>
+        <v>22.21354166666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>321717.2050323642</v>
+        <v>450194.8966083249</v>
       </c>
     </row>
     <row r="4">
@@ -52854,28 +52854,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>247.6183230435355</v>
+        <v>351.3910242827132</v>
       </c>
       <c r="AB4" t="n">
-        <v>338.8023137374314</v>
+        <v>480.7887017015047</v>
       </c>
       <c r="AC4" t="n">
-        <v>306.4674964264657</v>
+        <v>434.9029028022931</v>
       </c>
       <c r="AD4" t="n">
-        <v>247618.3230435355</v>
+        <v>351391.0242827132</v>
       </c>
       <c r="AE4" t="n">
-        <v>338802.3137374314</v>
+        <v>480788.7017015047</v>
       </c>
       <c r="AF4" t="n">
         <v>1.008219391115141e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>22</v>
+        <v>21.484375</v>
       </c>
       <c r="AH4" t="n">
-        <v>306467.4964264657</v>
+        <v>434902.9028022931</v>
       </c>
     </row>
     <row r="5">
@@ -52960,28 +52960,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>245.7764760463773</v>
+        <v>340.174400262602</v>
       </c>
       <c r="AB5" t="n">
-        <v>336.2822174193661</v>
+        <v>465.4416218746611</v>
       </c>
       <c r="AC5" t="n">
-        <v>304.1879145640183</v>
+        <v>421.0205267343617</v>
       </c>
       <c r="AD5" t="n">
-        <v>245776.4760463773</v>
+        <v>340174.400262602</v>
       </c>
       <c r="AE5" t="n">
-        <v>336282.2174193661</v>
+        <v>465441.6218746611</v>
       </c>
       <c r="AF5" t="n">
         <v>1.029045833578038e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>22</v>
+        <v>21.04166666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>304187.9145640184</v>
+        <v>421020.5267343617</v>
       </c>
     </row>
     <row r="6">
@@ -53066,28 +53066,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>235.0098477015938</v>
+        <v>338.8498687484757</v>
       </c>
       <c r="AB6" t="n">
-        <v>321.5508415279212</v>
+        <v>463.6293394228271</v>
       </c>
       <c r="AC6" t="n">
-        <v>290.8624805120324</v>
+        <v>419.3812059761764</v>
       </c>
       <c r="AD6" t="n">
-        <v>235009.8477015938</v>
+        <v>338849.8687484757</v>
       </c>
       <c r="AE6" t="n">
-        <v>321550.8415279213</v>
+        <v>463629.3394228271</v>
       </c>
       <c r="AF6" t="n">
         <v>1.03962540019657e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>21</v>
+        <v>20.83333333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>290862.4805120324</v>
+        <v>419381.2059761764</v>
       </c>
     </row>
     <row r="7">
@@ -53172,28 +53172,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>234.360593255316</v>
+        <v>338.2006143021979</v>
       </c>
       <c r="AB7" t="n">
-        <v>320.6625029514398</v>
+        <v>462.7410008463452</v>
       </c>
       <c r="AC7" t="n">
-        <v>290.0589237224991</v>
+        <v>418.5776491866429</v>
       </c>
       <c r="AD7" t="n">
-        <v>234360.593255316</v>
+        <v>338200.6143021979</v>
       </c>
       <c r="AE7" t="n">
-        <v>320662.5029514398</v>
+        <v>462741.0008463452</v>
       </c>
       <c r="AF7" t="n">
         <v>1.04291903886083e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>21</v>
+        <v>20.78125</v>
       </c>
       <c r="AH7" t="n">
-        <v>290058.9237224991</v>
+        <v>418577.649186643</v>
       </c>
     </row>
     <row r="8">
@@ -53278,28 +53278,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>233.2739816726424</v>
+        <v>337.1140027195244</v>
       </c>
       <c r="AB8" t="n">
-        <v>319.1757530461069</v>
+        <v>461.2542509410115</v>
       </c>
       <c r="AC8" t="n">
-        <v>288.7140671414641</v>
+        <v>417.2327926056077</v>
       </c>
       <c r="AD8" t="n">
-        <v>233273.9816726424</v>
+        <v>337114.0027195244</v>
       </c>
       <c r="AE8" t="n">
-        <v>319175.7530461069</v>
+        <v>461254.2509410115</v>
       </c>
       <c r="AF8" t="n">
         <v>1.050304774047352e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>21</v>
+        <v>20.625</v>
       </c>
       <c r="AH8" t="n">
-        <v>288714.067141464</v>
+        <v>417232.7926056077</v>
       </c>
     </row>
     <row r="9">
@@ -53384,28 +53384,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>233.1303750334266</v>
+        <v>336.9703960803086</v>
       </c>
       <c r="AB9" t="n">
-        <v>318.9792641068541</v>
+        <v>461.0577620017586</v>
       </c>
       <c r="AC9" t="n">
-        <v>288.5363308307996</v>
+        <v>417.0550562949431</v>
       </c>
       <c r="AD9" t="n">
-        <v>233130.3750334266</v>
+        <v>336970.3960803086</v>
       </c>
       <c r="AE9" t="n">
-        <v>318979.2641068541</v>
+        <v>461057.7620017587</v>
       </c>
       <c r="AF9" t="n">
         <v>1.049497998919995e-05</v>
       </c>
       <c r="AG9" t="n">
-        <v>21</v>
+        <v>20.625</v>
       </c>
       <c r="AH9" t="n">
-        <v>288536.3308307995</v>
+        <v>417055.0562949431</v>
       </c>
     </row>
   </sheetData>
@@ -53681,28 +53681,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>323.4061538340792</v>
+        <v>457.1412597030091</v>
       </c>
       <c r="AB2" t="n">
-        <v>442.4985673483336</v>
+        <v>625.4808391746747</v>
       </c>
       <c r="AC2" t="n">
-        <v>400.2671251312477</v>
+        <v>565.7858257517144</v>
       </c>
       <c r="AD2" t="n">
-        <v>323406.1538340792</v>
+        <v>457141.2597030091</v>
       </c>
       <c r="AE2" t="n">
-        <v>442498.5673483335</v>
+        <v>625480.8391746747</v>
       </c>
       <c r="AF2" t="n">
         <v>7.213827072999172e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>27</v>
+        <v>26.74479166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>400267.1251312477</v>
+        <v>565785.8257517144</v>
       </c>
     </row>
     <row r="3">
@@ -53787,28 +53787,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>281.3753063704227</v>
+        <v>395.9331965334036</v>
       </c>
       <c r="AB3" t="n">
-        <v>384.9901075784364</v>
+        <v>541.733266836852</v>
       </c>
       <c r="AC3" t="n">
-        <v>348.2471920481593</v>
+        <v>490.0310041773573</v>
       </c>
       <c r="AD3" t="n">
-        <v>281375.3063704227</v>
+        <v>395933.1965334037</v>
       </c>
       <c r="AE3" t="n">
-        <v>384990.1075784364</v>
+        <v>541733.266836852</v>
       </c>
       <c r="AF3" t="n">
         <v>8.269480182167389e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>24</v>
+        <v>23.33333333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>348247.1920481593</v>
+        <v>490031.0041773573</v>
       </c>
     </row>
     <row r="4">
@@ -53893,28 +53893,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>267.7403920893775</v>
+        <v>372.7774997220171</v>
       </c>
       <c r="AB4" t="n">
-        <v>366.3342163291462</v>
+        <v>510.0506209022675</v>
       </c>
       <c r="AC4" t="n">
-        <v>331.3717928759935</v>
+        <v>461.3721055038968</v>
       </c>
       <c r="AD4" t="n">
-        <v>267740.3920893775</v>
+        <v>372777.4997220171</v>
       </c>
       <c r="AE4" t="n">
-        <v>366334.2163291462</v>
+        <v>510050.6209022675</v>
       </c>
       <c r="AF4" t="n">
         <v>8.661702636647174e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>23</v>
+        <v>22.265625</v>
       </c>
       <c r="AH4" t="n">
-        <v>331371.7928759935</v>
+        <v>461372.1055038968</v>
       </c>
     </row>
     <row r="5">
@@ -53999,28 +53999,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>256.2528657012653</v>
+        <v>370.8439102531732</v>
       </c>
       <c r="AB5" t="n">
-        <v>350.6164759308689</v>
+        <v>507.4049984870482</v>
       </c>
       <c r="AC5" t="n">
-        <v>317.154131561446</v>
+        <v>458.9789775788317</v>
       </c>
       <c r="AD5" t="n">
-        <v>256252.8657012653</v>
+        <v>370843.9102531732</v>
       </c>
       <c r="AE5" t="n">
-        <v>350616.4759308689</v>
+        <v>507404.9984870482</v>
       </c>
       <c r="AF5" t="n">
         <v>8.838039808874586e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>22</v>
+        <v>21.82291666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>317154.131561446</v>
+        <v>458978.9775788317</v>
       </c>
     </row>
     <row r="6">
@@ -54105,28 +54105,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>254.9524050273939</v>
+        <v>360.0568324677412</v>
       </c>
       <c r="AB6" t="n">
-        <v>348.8371282646031</v>
+        <v>492.645642768735</v>
       </c>
       <c r="AC6" t="n">
-        <v>315.5446023391179</v>
+        <v>445.6282340553885</v>
       </c>
       <c r="AD6" t="n">
-        <v>254952.4050273939</v>
+        <v>360056.8324677412</v>
       </c>
       <c r="AE6" t="n">
-        <v>348837.1282646031</v>
+        <v>492645.642768735</v>
       </c>
       <c r="AF6" t="n">
         <v>8.947130382033335e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>22</v>
+        <v>21.5625</v>
       </c>
       <c r="AH6" t="n">
-        <v>315544.602339118</v>
+        <v>445628.2340553885</v>
       </c>
     </row>
     <row r="7">
@@ -54211,28 +54211,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>253.6764642599912</v>
+        <v>358.6794064738532</v>
       </c>
       <c r="AB7" t="n">
-        <v>347.0913298161099</v>
+        <v>490.7609877561516</v>
       </c>
       <c r="AC7" t="n">
-        <v>313.9654204443048</v>
+        <v>443.9234478720761</v>
       </c>
       <c r="AD7" t="n">
-        <v>253676.4642599912</v>
+        <v>358679.4064738533</v>
       </c>
       <c r="AE7" t="n">
-        <v>347091.3298161099</v>
+        <v>490760.9877561516</v>
       </c>
       <c r="AF7" t="n">
         <v>9.050444264963716e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>22</v>
+        <v>21.30208333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>313965.4204443048</v>
+        <v>443923.4478720761</v>
       </c>
     </row>
     <row r="8">
@@ -54317,28 +54317,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>253.0208049367293</v>
+        <v>358.0237471505914</v>
       </c>
       <c r="AB8" t="n">
-        <v>346.1942278043754</v>
+        <v>489.8638857444167</v>
       </c>
       <c r="AC8" t="n">
-        <v>313.1539365894794</v>
+        <v>443.1119640172506</v>
       </c>
       <c r="AD8" t="n">
-        <v>253020.8049367293</v>
+        <v>358023.7471505913</v>
       </c>
       <c r="AE8" t="n">
-        <v>346194.2278043754</v>
+        <v>489863.8857444167</v>
       </c>
       <c r="AF8" t="n">
         <v>9.097990869151032e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>22</v>
+        <v>21.19791666666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>313153.9365894794</v>
+        <v>443111.9640172506</v>
       </c>
     </row>
     <row r="9">
@@ -54423,28 +54423,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>251.9562670369303</v>
+        <v>347.4725921392318</v>
       </c>
       <c r="AB9" t="n">
-        <v>344.7376800857737</v>
+        <v>475.4273299737677</v>
       </c>
       <c r="AC9" t="n">
-        <v>311.836399740863</v>
+        <v>430.053212867519</v>
       </c>
       <c r="AD9" t="n">
-        <v>251956.2670369303</v>
+        <v>347472.5921392318</v>
       </c>
       <c r="AE9" t="n">
-        <v>344737.6800857736</v>
+        <v>475427.3299737677</v>
       </c>
       <c r="AF9" t="n">
         <v>9.151091983173314e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>22</v>
+        <v>21.06770833333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>311836.399740863</v>
+        <v>430053.212867519</v>
       </c>
     </row>
     <row r="10">
@@ -54529,28 +54529,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>251.693926662412</v>
+        <v>347.2102517647135</v>
       </c>
       <c r="AB10" t="n">
-        <v>344.3787344117173</v>
+        <v>475.0683842997112</v>
       </c>
       <c r="AC10" t="n">
-        <v>311.5117113381551</v>
+        <v>429.7285244648111</v>
       </c>
       <c r="AD10" t="n">
-        <v>251693.926662412</v>
+        <v>347210.2517647134</v>
       </c>
       <c r="AE10" t="n">
-        <v>344378.7344117173</v>
+        <v>475068.3842997112</v>
       </c>
       <c r="AF10" t="n">
         <v>9.145389353076081e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>22</v>
+        <v>21.09375</v>
       </c>
       <c r="AH10" t="n">
-        <v>311511.7113381551</v>
+        <v>429728.5244648111</v>
       </c>
     </row>
     <row r="11">
@@ -54635,28 +54635,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>241.2952701113109</v>
+        <v>346.3655321328772</v>
       </c>
       <c r="AB11" t="n">
-        <v>330.1508337621583</v>
+        <v>473.9126016330329</v>
       </c>
       <c r="AC11" t="n">
-        <v>298.6417015576015</v>
+        <v>428.6830480736893</v>
       </c>
       <c r="AD11" t="n">
-        <v>241295.2701113109</v>
+        <v>346365.5321328772</v>
       </c>
       <c r="AE11" t="n">
-        <v>330150.8337621583</v>
+        <v>473912.6016330329</v>
       </c>
       <c r="AF11" t="n">
         <v>9.189232950706754e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>21</v>
+        <v>20.98958333333334</v>
       </c>
       <c r="AH11" t="n">
-        <v>298641.7015576015</v>
+        <v>428683.0480736893</v>
       </c>
     </row>
     <row r="12">
@@ -54741,28 +54741,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>240.7556870909775</v>
+        <v>345.8259491125438</v>
       </c>
       <c r="AB12" t="n">
-        <v>329.4125524690157</v>
+        <v>473.1743203398898</v>
       </c>
       <c r="AC12" t="n">
-        <v>297.9738807948918</v>
+        <v>428.0152273109796</v>
       </c>
       <c r="AD12" t="n">
-        <v>240755.6870909775</v>
+        <v>345825.9491125438</v>
       </c>
       <c r="AE12" t="n">
-        <v>329412.5524690157</v>
+        <v>473174.3203398898</v>
       </c>
       <c r="AF12" t="n">
         <v>9.199379188671959e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>21</v>
+        <v>20.96354166666667</v>
       </c>
       <c r="AH12" t="n">
-        <v>297973.8807948919</v>
+        <v>428015.2273109796</v>
       </c>
     </row>
     <row r="13">
@@ -54847,28 +54847,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>240.467980212248</v>
+        <v>345.5382422338143</v>
       </c>
       <c r="AB13" t="n">
-        <v>329.0188992248066</v>
+        <v>472.7806670956805</v>
       </c>
       <c r="AC13" t="n">
-        <v>297.6177972638141</v>
+        <v>427.6591437799019</v>
       </c>
       <c r="AD13" t="n">
-        <v>240467.980212248</v>
+        <v>345538.2422338143</v>
       </c>
       <c r="AE13" t="n">
-        <v>329018.8992248066</v>
+        <v>472780.6670956805</v>
       </c>
       <c r="AF13" t="n">
         <v>9.204489337720128e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>21</v>
+        <v>20.96354166666667</v>
       </c>
       <c r="AH13" t="n">
-        <v>297617.7972638141</v>
+        <v>427659.1437799018</v>
       </c>
     </row>
   </sheetData>
